--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111032.2475521141</v>
+        <v>112052.4566934968</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12094696.02902171</v>
+        <v>12088242.93895604</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20911651.76719701</v>
+        <v>20912754.57690316</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4383390.749979498</v>
+        <v>4383603.421316193</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>34.09716019541499</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>34.09716019541497</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1458,64 +1458,64 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>34.09716019541499</v>
       </c>
-      <c r="G12" t="n">
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="H12" t="n">
+      <c r="X12" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="I12" t="n">
+      <c r="Y12" t="n">
         <v>38.71158060333218</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1534,55 +1534,55 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>34.09716019541497</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="S13" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="J13" t="n">
+      <c r="T13" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>34.09716019541496</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>38.71158060333218</v>
+        <v>34.09716019541499</v>
       </c>
       <c r="G14" t="n">
         <v>38.71158060333218</v>
       </c>
       <c r="H14" t="n">
-        <v>34.09716019541496</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="I14" t="n">
         <v>38.71158060333218</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.09716019541499</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="S15" t="n">
         <v>38.71158060333218</v>
       </c>
       <c r="T15" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>34.09716019541496</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1774,44 +1774,44 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>38.71158060333218</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>34.09716019541496</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>26.23619181829162</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>7.86096837712336</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,50 +1853,50 @@
         <v>38.71158060333218</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>34.09716019541496</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.09716019541499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.09716019541496</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="S18" t="n">
         <v>38.71158060333218</v>
@@ -1977,7 +1977,7 @@
         <v>38.71158060333218</v>
       </c>
       <c r="U18" t="n">
-        <v>38.71158060333218</v>
+        <v>34.09716019541496</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>34.09716019541499</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.09716019541499</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>48.67402515116257</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2090,61 +2090,61 @@
         <v>55.26115480377223</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="G20" t="n">
-        <v>48.67402515116257</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>55.26115480377223</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2166,52 +2166,52 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>48.67402515116257</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>47.15831191777808</v>
+      </c>
+      <c r="S21" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.515713233384492</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2242,61 +2242,61 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>22.43783333287094</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>26.23619181829162</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="E22" t="n">
+      <c r="T22" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.911234850750057</v>
-      </c>
-      <c r="J22" t="n">
-        <v>42.76279030041251</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="V22" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>48.67402515116257</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,22 +2363,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>48.67402515116256</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>55.26115480377223</v>
-      </c>
-      <c r="T23" t="n">
-        <v>55.26115480377223</v>
-      </c>
-      <c r="U23" t="n">
-        <v>55.26115480377223</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>48.67402515116257</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,55 +2415,55 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
+      <c r="W24" t="n">
+        <v>48.67402515116256</v>
+      </c>
+      <c r="X24" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="U24" t="n">
+      <c r="Y24" t="n">
         <v>55.26115480377223</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>48.67402515116256</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="T25" t="n">
         <v>55.26115480377223</v>
@@ -2533,7 +2533,7 @@
         <v>55.26115480377223</v>
       </c>
       <c r="V25" t="n">
-        <v>55.26115480377223</v>
+        <v>48.67402515116257</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2567,52 +2567,52 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
         <v>55.26115480377223</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>48.67402515116256</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>48.67402515116257</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2640,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>48.67402515116257</v>
+        <v>1.515713233384492</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2755,28 +2755,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>22.43783333287093</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="U28" t="n">
-        <v>48.67402515116256</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,73 +2789,73 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>48.67402515116256</v>
+      </c>
+      <c r="S29" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="D29" t="n">
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>55.26115480377223</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>48.67402515116256</v>
-      </c>
-      <c r="V29" t="n">
-        <v>55.26115480377223</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>48.67402515116257</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2925,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>48.67402515116256</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="V30" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>55.26115480377223</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>48.67402515116257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2992,31 +2992,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>22.43783333287093</v>
       </c>
       <c r="W31" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>48.67402515116257</v>
       </c>
       <c r="D32" t="n">
-        <v>48.67402515116257</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>55.26115480377223</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3117,55 +3117,55 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>47.15831191777808</v>
+      </c>
+      <c r="S33" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="G33" t="n">
+      <c r="T33" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="H33" t="n">
+      <c r="U33" t="n">
+        <v>1.515713233384492</v>
+      </c>
+      <c r="V33" t="n">
         <v>55.26115480377223</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>48.67402515116256</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>48.67402515116257</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>22.43783333287094</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,31 +3229,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>26.23619181829162</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>55.26115480377223</v>
-      </c>
-      <c r="S34" t="n">
-        <v>55.26115480377223</v>
-      </c>
-      <c r="T34" t="n">
-        <v>55.26115480377223</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,11 +3263,11 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="H35" t="n">
-        <v>34.09716019541496</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>38.71158060333218</v>
+        <v>34.09716019541499</v>
       </c>
       <c r="Y35" t="n">
         <v>38.71158060333218</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>34.09716019541496</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3396,16 +3396,16 @@
         <v>38.71158060333218</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>34.09716019541497</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="V36" t="n">
         <v>38.71158060333218</v>
       </c>
       <c r="W36" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34.09716019541496</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R37" t="n">
         <v>38.71158060333218</v>
@@ -3478,7 +3478,7 @@
         <v>38.71158060333218</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>7.860968377123344</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3515,14 +3515,14 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>34.09716019541496</v>
+      </c>
+      <c r="I38" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.09716019541499</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>34.09716019541496</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="T39" t="n">
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
+      <c r="Y39" t="n">
         <v>38.71158060333218</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>34.09716019541496</v>
       </c>
     </row>
     <row r="40">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>7.860968377123346</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>34.09716019541499</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>34.09716019541499</v>
+      </c>
+      <c r="E41" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="G41" t="n">
         <v>38.71158060333218</v>
@@ -3785,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>34.09716019541499</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>34.09716019541496</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>38.71158060333218</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>34.09716019541496</v>
+        <v>38.71158060333218</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,55 +3904,55 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>34.09716019541496</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>38.71158060333218</v>
-      </c>
-      <c r="S43" t="n">
-        <v>34.09716019541497</v>
-      </c>
-      <c r="T43" t="n">
-        <v>38.71158060333218</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>22.16200640289213</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,19 +4022,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>22.16200640289213</v>
       </c>
       <c r="S44" t="n">
-        <v>19.52029523966738</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>22.16200640289213</v>
       </c>
       <c r="U44" t="n">
-        <v>22.16200640289213</v>
+        <v>19.52029523966738</v>
       </c>
       <c r="V44" t="n">
-        <v>22.16200640289213</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>19.52029523966738</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>19.52029523966738</v>
+        <v>22.16200640289213</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>22.16200640289213</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>22.16200640289213</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.096926448266574</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="C11" t="n">
-        <v>3.096926448266574</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="D11" t="n">
-        <v>3.096926448266574</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="E11" t="n">
-        <v>3.096926448266574</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="F11" t="n">
-        <v>3.096926448266574</v>
+        <v>120.4047464583641</v>
       </c>
       <c r="G11" t="n">
-        <v>3.096926448266574</v>
+        <v>81.30213978833159</v>
       </c>
       <c r="H11" t="n">
-        <v>3.096926448266574</v>
+        <v>42.19953311829908</v>
       </c>
       <c r="I11" t="n">
         <v>3.096926448266574</v>
@@ -5063,28 +5063,28 @@
         <v>154.8463224133287</v>
       </c>
       <c r="R11" t="n">
-        <v>115.7437157432962</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="S11" t="n">
-        <v>115.7437157432962</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="T11" t="n">
-        <v>81.30213978833159</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="U11" t="n">
-        <v>42.19953311829908</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="V11" t="n">
-        <v>3.096926448266574</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="W11" t="n">
-        <v>3.096926448266574</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="X11" t="n">
-        <v>3.096926448266574</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.096926448266574</v>
+        <v>154.8463224133287</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>154.8463224133287</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="C12" t="n">
-        <v>154.8463224133287</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="D12" t="n">
-        <v>154.8463224133287</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="E12" t="n">
-        <v>154.8463224133287</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="F12" t="n">
-        <v>120.4047464583641</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="G12" t="n">
-        <v>81.30213978833159</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="H12" t="n">
-        <v>42.19953311829908</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="I12" t="n">
         <v>3.096926448266574</v>
@@ -5130,7 +5130,7 @@
         <v>79.74585604286429</v>
       </c>
       <c r="N12" t="n">
-        <v>118.0703208401631</v>
+        <v>87.78196125920223</v>
       </c>
       <c r="O12" t="n">
         <v>126.1064260565011</v>
@@ -5145,25 +5145,25 @@
         <v>154.8463224133287</v>
       </c>
       <c r="S12" t="n">
-        <v>154.8463224133287</v>
+        <v>120.4047464583641</v>
       </c>
       <c r="T12" t="n">
-        <v>154.8463224133287</v>
+        <v>120.4047464583641</v>
       </c>
       <c r="U12" t="n">
-        <v>154.8463224133287</v>
+        <v>120.4047464583641</v>
       </c>
       <c r="V12" t="n">
-        <v>154.8463224133287</v>
+        <v>120.4047464583641</v>
       </c>
       <c r="W12" t="n">
-        <v>154.8463224133287</v>
+        <v>81.30213978833159</v>
       </c>
       <c r="X12" t="n">
-        <v>154.8463224133287</v>
+        <v>42.19953311829908</v>
       </c>
       <c r="Y12" t="n">
-        <v>154.8463224133287</v>
+        <v>3.096926448266574</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.8463224133287</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="C13" t="n">
-        <v>154.8463224133287</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="D13" t="n">
-        <v>154.8463224133287</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="E13" t="n">
-        <v>115.7437157432962</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="F13" t="n">
-        <v>115.7437157432962</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="G13" t="n">
-        <v>81.30213978833159</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="H13" t="n">
-        <v>81.30213978833159</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="I13" t="n">
-        <v>42.19953311829908</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="J13" t="n">
         <v>3.096926448266574</v>
@@ -5206,13 +5206,13 @@
         <v>79.74585604286429</v>
       </c>
       <c r="M13" t="n">
-        <v>118.0703208401631</v>
+        <v>116.5218576160299</v>
       </c>
       <c r="N13" t="n">
-        <v>154.8463224133287</v>
+        <v>116.5218576160299</v>
       </c>
       <c r="O13" t="n">
-        <v>154.8463224133287</v>
+        <v>116.5218576160299</v>
       </c>
       <c r="P13" t="n">
         <v>154.8463224133287</v>
@@ -5221,28 +5221,28 @@
         <v>154.8463224133287</v>
       </c>
       <c r="R13" t="n">
-        <v>154.8463224133287</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="S13" t="n">
-        <v>154.8463224133287</v>
+        <v>76.64110907326369</v>
       </c>
       <c r="T13" t="n">
-        <v>154.8463224133287</v>
+        <v>37.53850240323118</v>
       </c>
       <c r="U13" t="n">
-        <v>154.8463224133287</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="V13" t="n">
-        <v>154.8463224133287</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="W13" t="n">
-        <v>154.8463224133287</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="X13" t="n">
-        <v>154.8463224133287</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.8463224133287</v>
+        <v>3.096926448266574</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>154.8463224133287</v>
       </c>
       <c r="F14" t="n">
-        <v>115.7437157432962</v>
+        <v>120.4047464583641</v>
       </c>
       <c r="G14" t="n">
-        <v>76.64110907326369</v>
+        <v>81.30213978833159</v>
       </c>
       <c r="H14" t="n">
         <v>42.19953311829908</v>
@@ -5282,19 +5282,19 @@
         <v>3.096926448266574</v>
       </c>
       <c r="L14" t="n">
-        <v>18.93923388817933</v>
+        <v>39.87292802143214</v>
       </c>
       <c r="M14" t="n">
-        <v>57.26369868547819</v>
+        <v>78.197392818731</v>
       </c>
       <c r="N14" t="n">
-        <v>95.58816348277705</v>
+        <v>116.5218576160299</v>
       </c>
       <c r="O14" t="n">
-        <v>133.9126282800759</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="P14" t="n">
-        <v>133.9126282800759</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="Q14" t="n">
         <v>154.8463224133287</v>
@@ -5361,10 +5361,10 @@
         <v>3.096926448266574</v>
       </c>
       <c r="L15" t="n">
-        <v>11.13303166460452</v>
+        <v>41.42139124556543</v>
       </c>
       <c r="M15" t="n">
-        <v>49.45749646190338</v>
+        <v>79.74585604286429</v>
       </c>
       <c r="N15" t="n">
         <v>87.78196125920223</v>
@@ -5379,22 +5379,22 @@
         <v>154.8463224133287</v>
       </c>
       <c r="R15" t="n">
-        <v>120.4047464583641</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="S15" t="n">
-        <v>81.30213978833159</v>
+        <v>76.64110907326369</v>
       </c>
       <c r="T15" t="n">
-        <v>42.19953311829908</v>
+        <v>76.64110907326369</v>
       </c>
       <c r="U15" t="n">
-        <v>42.19953311829908</v>
+        <v>76.64110907326369</v>
       </c>
       <c r="V15" t="n">
-        <v>42.19953311829908</v>
+        <v>76.64110907326369</v>
       </c>
       <c r="W15" t="n">
-        <v>42.19953311829908</v>
+        <v>76.64110907326369</v>
       </c>
       <c r="X15" t="n">
         <v>42.19953311829908</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>120.4047464583641</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="C16" t="n">
-        <v>120.4047464583641</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="D16" t="n">
-        <v>120.4047464583641</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="E16" t="n">
-        <v>120.4047464583641</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="F16" t="n">
-        <v>81.30213978833159</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="G16" t="n">
-        <v>42.19953311829908</v>
+        <v>76.64110907326369</v>
       </c>
       <c r="H16" t="n">
-        <v>42.19953311829908</v>
+        <v>37.53850240323118</v>
       </c>
       <c r="I16" t="n">
-        <v>42.19953311829908</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="J16" t="n">
         <v>3.096926448266574</v>
       </c>
       <c r="K16" t="n">
-        <v>41.42139124556543</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="L16" t="n">
-        <v>41.42139124556543</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="M16" t="n">
-        <v>41.42139124556543</v>
+        <v>39.87292802143214</v>
       </c>
       <c r="N16" t="n">
         <v>78.197392818731</v>
@@ -5455,31 +5455,31 @@
         <v>154.8463224133287</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.3451185564685</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="R16" t="n">
-        <v>128.3451185564685</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="S16" t="n">
-        <v>128.3451185564685</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="T16" t="n">
-        <v>128.3451185564685</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="U16" t="n">
-        <v>128.3451185564685</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="V16" t="n">
-        <v>128.3451185564685</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="W16" t="n">
-        <v>120.4047464583641</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="X16" t="n">
-        <v>120.4047464583641</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="Y16" t="n">
-        <v>120.4047464583641</v>
+        <v>115.7437157432962</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.30213978833159</v>
+        <v>42.19953311829908</v>
       </c>
       <c r="C17" t="n">
-        <v>81.30213978833159</v>
+        <v>42.19953311829908</v>
       </c>
       <c r="D17" t="n">
-        <v>81.30213978833159</v>
+        <v>42.19953311829908</v>
       </c>
       <c r="E17" t="n">
-        <v>42.19953311829908</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="F17" t="n">
         <v>3.096926448266574</v>
@@ -5516,7 +5516,7 @@
         <v>3.096926448266574</v>
       </c>
       <c r="K17" t="n">
-        <v>3.096926448266574</v>
+        <v>24.03062058151939</v>
       </c>
       <c r="L17" t="n">
         <v>39.87292802143214</v>
@@ -5543,22 +5543,22 @@
         <v>154.8463224133287</v>
       </c>
       <c r="T17" t="n">
-        <v>154.8463224133287</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="U17" t="n">
-        <v>154.8463224133287</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="V17" t="n">
-        <v>154.8463224133287</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="W17" t="n">
-        <v>154.8463224133287</v>
+        <v>76.64110907326369</v>
       </c>
       <c r="X17" t="n">
-        <v>154.8463224133287</v>
+        <v>42.19953311829908</v>
       </c>
       <c r="Y17" t="n">
-        <v>120.4047464583641</v>
+        <v>42.19953311829908</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="C18" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="D18" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="E18" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="F18" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="G18" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="H18" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="I18" t="n">
         <v>3.096926448266574</v>
@@ -5598,10 +5598,10 @@
         <v>3.096926448266574</v>
       </c>
       <c r="L18" t="n">
-        <v>41.42139124556543</v>
+        <v>11.13303166460452</v>
       </c>
       <c r="M18" t="n">
-        <v>79.74585604286429</v>
+        <v>49.45749646190338</v>
       </c>
       <c r="N18" t="n">
         <v>87.78196125920223</v>
@@ -5616,28 +5616,28 @@
         <v>154.8463224133287</v>
       </c>
       <c r="R18" t="n">
-        <v>154.8463224133287</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="S18" t="n">
-        <v>115.7437157432962</v>
+        <v>76.64110907326369</v>
       </c>
       <c r="T18" t="n">
-        <v>76.64110907326369</v>
+        <v>37.53850240323118</v>
       </c>
       <c r="U18" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="V18" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="W18" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="X18" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="Y18" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.096926448266574</v>
+        <v>81.30213978833159</v>
       </c>
       <c r="C19" t="n">
-        <v>3.096926448266574</v>
+        <v>42.19953311829908</v>
       </c>
       <c r="D19" t="n">
         <v>3.096926448266574</v>
@@ -5680,13 +5680,13 @@
         <v>39.87292802143214</v>
       </c>
       <c r="M19" t="n">
-        <v>39.87292802143214</v>
+        <v>78.197392818731</v>
       </c>
       <c r="N19" t="n">
-        <v>78.197392818731</v>
+        <v>116.5218576160299</v>
       </c>
       <c r="O19" t="n">
-        <v>116.5218576160299</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="P19" t="n">
         <v>154.8463224133287</v>
@@ -5698,25 +5698,25 @@
         <v>154.8463224133287</v>
       </c>
       <c r="S19" t="n">
-        <v>154.8463224133287</v>
+        <v>120.4047464583641</v>
       </c>
       <c r="T19" t="n">
-        <v>154.8463224133287</v>
+        <v>120.4047464583641</v>
       </c>
       <c r="U19" t="n">
-        <v>154.8463224133287</v>
+        <v>81.30213978833159</v>
       </c>
       <c r="V19" t="n">
-        <v>154.8463224133287</v>
+        <v>81.30213978833159</v>
       </c>
       <c r="W19" t="n">
-        <v>120.4047464583641</v>
+        <v>81.30213978833159</v>
       </c>
       <c r="X19" t="n">
         <v>81.30213978833159</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.19953311829908</v>
+        <v>81.30213978833159</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>221.0446192150889</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="C20" t="n">
-        <v>221.0446192150889</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="D20" t="n">
-        <v>221.0446192150889</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="E20" t="n">
-        <v>165.2252709284503</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="F20" t="n">
-        <v>109.4059226418117</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="G20" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="H20" t="n">
         <v>4.420892384301778</v>
@@ -5750,25 +5750,25 @@
         <v>4.420892384301778</v>
       </c>
       <c r="J20" t="n">
-        <v>8.163703509554852</v>
+        <v>59.12943564003628</v>
       </c>
       <c r="K20" t="n">
-        <v>8.163703509554852</v>
+        <v>59.12943564003628</v>
       </c>
       <c r="L20" t="n">
-        <v>24.00601094946761</v>
+        <v>74.97174307994904</v>
       </c>
       <c r="M20" t="n">
-        <v>73.30306790632105</v>
+        <v>128.0116111620556</v>
       </c>
       <c r="N20" t="n">
-        <v>128.0116111620555</v>
+        <v>182.7201544177901</v>
       </c>
       <c r="O20" t="n">
-        <v>166.3360759593544</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="P20" t="n">
-        <v>166.3360759593544</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="Q20" t="n">
         <v>221.0446192150889</v>
@@ -5777,25 +5777,25 @@
         <v>221.0446192150889</v>
       </c>
       <c r="S20" t="n">
-        <v>221.0446192150889</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="T20" t="n">
-        <v>221.0446192150889</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="U20" t="n">
-        <v>221.0446192150889</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="V20" t="n">
-        <v>221.0446192150889</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="W20" t="n">
-        <v>221.0446192150889</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="X20" t="n">
-        <v>221.0446192150889</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="Y20" t="n">
-        <v>221.0446192150889</v>
+        <v>109.4059226418117</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109.4059226418117</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="C21" t="n">
-        <v>109.4059226418117</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="D21" t="n">
-        <v>109.4059226418117</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="E21" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="F21" t="n">
         <v>4.420892384301778</v>
@@ -5853,28 +5853,28 @@
         <v>221.0446192150889</v>
       </c>
       <c r="R21" t="n">
-        <v>221.0446192150889</v>
+        <v>173.4099607122828</v>
       </c>
       <c r="S21" t="n">
-        <v>221.0446192150889</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="T21" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="U21" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="V21" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="W21" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="X21" t="n">
-        <v>165.2252709284503</v>
+        <v>116.059588957579</v>
       </c>
       <c r="Y21" t="n">
-        <v>165.2252709284503</v>
+        <v>116.059588957579</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.2252709284503</v>
+        <v>27.08537049831283</v>
       </c>
       <c r="C22" t="n">
-        <v>165.2252709284503</v>
+        <v>27.08537049831283</v>
       </c>
       <c r="D22" t="n">
-        <v>109.4059226418117</v>
+        <v>27.08537049831283</v>
       </c>
       <c r="E22" t="n">
-        <v>53.58657435517306</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="F22" t="n">
-        <v>53.58657435517306</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="G22" t="n">
-        <v>53.58657435517306</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="H22" t="n">
-        <v>53.58657435517306</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="I22" t="n">
-        <v>47.61563006148614</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="J22" t="n">
         <v>4.420892384301778</v>
@@ -5929,31 +5929,31 @@
         <v>221.0446192150889</v>
       </c>
       <c r="Q22" t="n">
-        <v>221.0446192150889</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="R22" t="n">
-        <v>221.0446192150889</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="S22" t="n">
-        <v>221.0446192150889</v>
+        <v>138.7240670715901</v>
       </c>
       <c r="T22" t="n">
-        <v>221.0446192150889</v>
+        <v>82.90471878495146</v>
       </c>
       <c r="U22" t="n">
-        <v>221.0446192150889</v>
+        <v>27.08537049831283</v>
       </c>
       <c r="V22" t="n">
-        <v>165.2252709284503</v>
+        <v>27.08537049831283</v>
       </c>
       <c r="W22" t="n">
-        <v>165.2252709284503</v>
+        <v>27.08537049831283</v>
       </c>
       <c r="X22" t="n">
-        <v>165.2252709284503</v>
+        <v>27.08537049831283</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.2252709284503</v>
+        <v>27.08537049831283</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.420892384301778</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="C23" t="n">
-        <v>4.420892384301778</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="D23" t="n">
-        <v>4.420892384301778</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="E23" t="n">
-        <v>4.420892384301778</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="F23" t="n">
-        <v>4.420892384301778</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="G23" t="n">
-        <v>4.420892384301778</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="H23" t="n">
-        <v>4.420892384301778</v>
+        <v>53.58657435517306</v>
       </c>
       <c r="I23" t="n">
         <v>4.420892384301778</v>
@@ -5990,49 +5990,49 @@
         <v>4.420892384301778</v>
       </c>
       <c r="K23" t="n">
-        <v>8.163703509554852</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="L23" t="n">
-        <v>24.00601094946761</v>
+        <v>56.91898944788542</v>
       </c>
       <c r="M23" t="n">
-        <v>73.30306790632105</v>
+        <v>111.6275327036199</v>
       </c>
       <c r="N23" t="n">
-        <v>128.0116111620555</v>
+        <v>166.3360759593544</v>
       </c>
       <c r="O23" t="n">
-        <v>166.3360759593544</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="P23" t="n">
-        <v>166.3360759593544</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="Q23" t="n">
         <v>221.0446192150889</v>
       </c>
       <c r="R23" t="n">
-        <v>171.8789372442176</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="S23" t="n">
-        <v>116.059588957579</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="T23" t="n">
-        <v>60.2402406709404</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="U23" t="n">
-        <v>4.420892384301778</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="V23" t="n">
-        <v>4.420892384301778</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="W23" t="n">
-        <v>4.420892384301778</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="X23" t="n">
-        <v>4.420892384301778</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.420892384301778</v>
+        <v>165.2252709284503</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>109.4059226418117</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="C24" t="n">
-        <v>109.4059226418117</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="D24" t="n">
-        <v>109.4059226418117</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="E24" t="n">
-        <v>109.4059226418117</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="F24" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="G24" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="H24" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="I24" t="n">
         <v>4.420892384301778</v>
@@ -6075,13 +6075,13 @@
         <v>50.74343353945604</v>
       </c>
       <c r="M24" t="n">
-        <v>82.88763634679231</v>
+        <v>105.4519767951905</v>
       </c>
       <c r="N24" t="n">
-        <v>137.5961796025268</v>
+        <v>160.160520050925</v>
       </c>
       <c r="O24" t="n">
-        <v>192.3047228582613</v>
+        <v>214.8690633066595</v>
       </c>
       <c r="P24" t="n">
         <v>221.0446192150889</v>
@@ -6096,22 +6096,22 @@
         <v>221.0446192150889</v>
       </c>
       <c r="T24" t="n">
+        <v>221.0446192150889</v>
+      </c>
+      <c r="U24" t="n">
+        <v>221.0446192150889</v>
+      </c>
+      <c r="V24" t="n">
         <v>165.2252709284503</v>
       </c>
-      <c r="U24" t="n">
-        <v>109.4059226418117</v>
-      </c>
-      <c r="V24" t="n">
-        <v>109.4059226418117</v>
-      </c>
       <c r="W24" t="n">
-        <v>109.4059226418117</v>
+        <v>116.059588957579</v>
       </c>
       <c r="X24" t="n">
-        <v>109.4059226418117</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="Y24" t="n">
-        <v>109.4059226418117</v>
+        <v>4.420892384301778</v>
       </c>
     </row>
     <row r="25">
@@ -6148,19 +6148,19 @@
         <v>4.420892384301778</v>
       </c>
       <c r="K25" t="n">
-        <v>56.91898944788542</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="L25" t="n">
-        <v>111.6275327036199</v>
+        <v>59.12943564003628</v>
       </c>
       <c r="M25" t="n">
+        <v>113.8379788957708</v>
+      </c>
+      <c r="N25" t="n">
         <v>166.3360759593544</v>
       </c>
-      <c r="N25" t="n">
-        <v>221.0446192150889</v>
-      </c>
       <c r="O25" t="n">
-        <v>221.0446192150889</v>
+        <v>166.3360759593544</v>
       </c>
       <c r="P25" t="n">
         <v>221.0446192150889</v>
@@ -6172,13 +6172,13 @@
         <v>221.0446192150889</v>
       </c>
       <c r="S25" t="n">
-        <v>171.8789372442176</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="T25" t="n">
-        <v>116.059588957579</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="U25" t="n">
-        <v>60.2402406709404</v>
+        <v>53.58657435517306</v>
       </c>
       <c r="V25" t="n">
         <v>4.420892384301778</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="C26" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="D26" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="E26" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="F26" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="G26" t="n">
         <v>4.420892384301778</v>
@@ -6224,52 +6224,52 @@
         <v>4.420892384301778</v>
       </c>
       <c r="J26" t="n">
-        <v>8.163703509554852</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="K26" t="n">
-        <v>8.163703509554852</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="L26" t="n">
-        <v>24.00601094946761</v>
+        <v>20.26319982421454</v>
       </c>
       <c r="M26" t="n">
-        <v>73.30306790632105</v>
+        <v>69.56025678106798</v>
       </c>
       <c r="N26" t="n">
-        <v>128.0116111620555</v>
+        <v>124.2688000368025</v>
       </c>
       <c r="O26" t="n">
         <v>166.3360759593544</v>
       </c>
       <c r="P26" t="n">
-        <v>166.3360759593544</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="Q26" t="n">
         <v>221.0446192150889</v>
       </c>
       <c r="R26" t="n">
-        <v>171.8789372442176</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="S26" t="n">
-        <v>171.8789372442176</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="T26" t="n">
-        <v>116.059588957579</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="U26" t="n">
-        <v>116.059588957579</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="V26" t="n">
-        <v>116.059588957579</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="W26" t="n">
-        <v>116.059588957579</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="X26" t="n">
-        <v>116.059588957579</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="Y26" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>53.58657435517306</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="C27" t="n">
-        <v>53.58657435517306</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="D27" t="n">
-        <v>53.58657435517306</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="E27" t="n">
-        <v>4.420892384301778</v>
+        <v>116.059588957579</v>
       </c>
       <c r="F27" t="n">
-        <v>4.420892384301778</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="G27" t="n">
         <v>4.420892384301778</v>
@@ -6309,16 +6309,16 @@
         <v>4.420892384301778</v>
       </c>
       <c r="L27" t="n">
-        <v>28.1790930910578</v>
+        <v>50.74343353945604</v>
       </c>
       <c r="M27" t="n">
-        <v>82.88763634679231</v>
+        <v>105.4519767951905</v>
       </c>
       <c r="N27" t="n">
-        <v>137.5961796025268</v>
+        <v>160.160520050925</v>
       </c>
       <c r="O27" t="n">
-        <v>192.3047228582613</v>
+        <v>214.8690633066595</v>
       </c>
       <c r="P27" t="n">
         <v>221.0446192150889</v>
@@ -6327,28 +6327,28 @@
         <v>221.0446192150889</v>
       </c>
       <c r="R27" t="n">
-        <v>221.0446192150889</v>
+        <v>173.4099607122828</v>
       </c>
       <c r="S27" t="n">
-        <v>221.0446192150889</v>
+        <v>173.4099607122828</v>
       </c>
       <c r="T27" t="n">
-        <v>221.0446192150889</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="U27" t="n">
-        <v>221.0446192150889</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="V27" t="n">
-        <v>165.2252709284503</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="W27" t="n">
-        <v>165.2252709284503</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="X27" t="n">
-        <v>109.4059226418117</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="Y27" t="n">
-        <v>53.58657435517306</v>
+        <v>117.5906124256442</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.420892384301778</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="C28" t="n">
         <v>4.420892384301778</v>
@@ -6388,13 +6388,13 @@
         <v>4.420892384301778</v>
       </c>
       <c r="L28" t="n">
+        <v>4.420892384301778</v>
+      </c>
+      <c r="M28" t="n">
         <v>56.91898944788542</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>111.6275327036199</v>
-      </c>
-      <c r="N28" t="n">
-        <v>166.3360759593544</v>
       </c>
       <c r="O28" t="n">
         <v>166.3360759593544</v>
@@ -6403,31 +6403,31 @@
         <v>221.0446192150889</v>
       </c>
       <c r="Q28" t="n">
-        <v>221.0446192150889</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="R28" t="n">
-        <v>221.0446192150889</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="S28" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="T28" t="n">
-        <v>221.0446192150889</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="U28" t="n">
-        <v>171.8789372442176</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="V28" t="n">
-        <v>116.059588957579</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="W28" t="n">
         <v>60.2402406709404</v>
       </c>
       <c r="X28" t="n">
-        <v>4.420892384301778</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.420892384301778</v>
+        <v>60.2402406709404</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>116.059588957579</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="C29" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="D29" t="n">
         <v>4.420892384301778</v>
@@ -6476,25 +6476,25 @@
         <v>124.2688000368025</v>
       </c>
       <c r="O29" t="n">
-        <v>162.5932648341013</v>
+        <v>166.3360759593544</v>
       </c>
       <c r="P29" t="n">
-        <v>166.3360759593544</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="Q29" t="n">
         <v>221.0446192150889</v>
       </c>
       <c r="R29" t="n">
-        <v>221.0446192150889</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="S29" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="T29" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="U29" t="n">
-        <v>171.8789372442176</v>
+        <v>116.059588957579</v>
       </c>
       <c r="V29" t="n">
         <v>116.059588957579</v>
@@ -6503,10 +6503,10 @@
         <v>116.059588957579</v>
       </c>
       <c r="X29" t="n">
-        <v>116.059588957579</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="Y29" t="n">
-        <v>116.059588957579</v>
+        <v>60.2402406709404</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6546,16 @@
         <v>4.420892384301778</v>
       </c>
       <c r="L30" t="n">
-        <v>28.1790930910578</v>
+        <v>50.74343353945604</v>
       </c>
       <c r="M30" t="n">
-        <v>82.88763634679231</v>
+        <v>105.4519767951905</v>
       </c>
       <c r="N30" t="n">
-        <v>137.5961796025268</v>
+        <v>160.160520050925</v>
       </c>
       <c r="O30" t="n">
-        <v>192.3047228582613</v>
+        <v>214.8690633066595</v>
       </c>
       <c r="P30" t="n">
         <v>221.0446192150889</v>
@@ -6573,19 +6573,19 @@
         <v>165.2252709284503</v>
       </c>
       <c r="U30" t="n">
-        <v>116.059588957579</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="V30" t="n">
-        <v>60.2402406709404</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="W30" t="n">
-        <v>4.420892384301778</v>
+        <v>53.58657435517306</v>
       </c>
       <c r="X30" t="n">
-        <v>4.420892384301778</v>
+        <v>53.58657435517306</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.420892384301778</v>
+        <v>53.58657435517306</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.58657435517306</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="C31" t="n">
-        <v>53.58657435517306</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="D31" t="n">
-        <v>53.58657435517306</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="E31" t="n">
         <v>4.420892384301778</v>
@@ -6625,10 +6625,10 @@
         <v>4.420892384301778</v>
       </c>
       <c r="L31" t="n">
-        <v>59.12943564003628</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="M31" t="n">
-        <v>59.12943564003628</v>
+        <v>56.91898944788542</v>
       </c>
       <c r="N31" t="n">
         <v>111.6275327036199</v>
@@ -6640,31 +6640,31 @@
         <v>221.0446192150889</v>
       </c>
       <c r="Q31" t="n">
-        <v>221.0446192150889</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="R31" t="n">
-        <v>221.0446192150889</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="S31" t="n">
-        <v>165.2252709284503</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="T31" t="n">
-        <v>165.2252709284503</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="U31" t="n">
-        <v>109.4059226418117</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="V31" t="n">
-        <v>109.4059226418117</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="W31" t="n">
-        <v>53.58657435517306</v>
+        <v>116.059588957579</v>
       </c>
       <c r="X31" t="n">
-        <v>53.58657435517306</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.58657435517306</v>
+        <v>4.420892384301778</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>109.4059226418117</v>
       </c>
       <c r="C32" t="n">
-        <v>109.4059226418117</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="D32" t="n">
         <v>60.2402406709404</v>
@@ -6704,16 +6704,16 @@
         <v>4.420892384301778</v>
       </c>
       <c r="L32" t="n">
-        <v>20.26319982421454</v>
+        <v>59.12943564003628</v>
       </c>
       <c r="M32" t="n">
-        <v>69.56025678106798</v>
+        <v>113.8379788957708</v>
       </c>
       <c r="N32" t="n">
-        <v>124.2688000368025</v>
+        <v>168.5465221515053</v>
       </c>
       <c r="O32" t="n">
-        <v>166.3360759593544</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="P32" t="n">
         <v>221.0446192150889</v>
@@ -6731,19 +6731,19 @@
         <v>165.2252709284503</v>
       </c>
       <c r="U32" t="n">
-        <v>109.4059226418117</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="V32" t="n">
-        <v>109.4059226418117</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="W32" t="n">
-        <v>109.4059226418117</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="X32" t="n">
-        <v>109.4059226418117</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.4059226418117</v>
+        <v>165.2252709284503</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>171.8789372442176</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="C33" t="n">
-        <v>171.8789372442176</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="D33" t="n">
-        <v>171.8789372442176</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8789372442176</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="F33" t="n">
-        <v>116.059588957579</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="G33" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="H33" t="n">
         <v>4.420892384301778</v>
@@ -6786,7 +6786,7 @@
         <v>50.74343353945604</v>
       </c>
       <c r="M33" t="n">
-        <v>105.4519767951905</v>
+        <v>82.88763634679231</v>
       </c>
       <c r="N33" t="n">
         <v>137.5961796025268</v>
@@ -6801,28 +6801,28 @@
         <v>221.0446192150889</v>
       </c>
       <c r="R33" t="n">
-        <v>221.0446192150889</v>
+        <v>173.4099607122828</v>
       </c>
       <c r="S33" t="n">
-        <v>221.0446192150889</v>
+        <v>117.5906124256442</v>
       </c>
       <c r="T33" t="n">
-        <v>171.8789372442176</v>
+        <v>61.77126413900555</v>
       </c>
       <c r="U33" t="n">
-        <v>171.8789372442176</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="V33" t="n">
-        <v>171.8789372442176</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="W33" t="n">
-        <v>171.8789372442176</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="X33" t="n">
-        <v>171.8789372442176</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="Y33" t="n">
-        <v>171.8789372442176</v>
+        <v>4.420892384301778</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.08537049831283</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="C34" t="n">
-        <v>27.08537049831283</v>
+        <v>53.58657435517306</v>
       </c>
       <c r="D34" t="n">
-        <v>27.08537049831283</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="E34" t="n">
-        <v>27.08537049831283</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="F34" t="n">
-        <v>27.08537049831283</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="G34" t="n">
-        <v>27.08537049831283</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="H34" t="n">
-        <v>27.08537049831283</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="I34" t="n">
-        <v>27.08537049831283</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="J34" t="n">
         <v>4.420892384301778</v>
@@ -6862,10 +6862,10 @@
         <v>4.420892384301778</v>
       </c>
       <c r="L34" t="n">
-        <v>59.12943564003628</v>
+        <v>56.91898944788542</v>
       </c>
       <c r="M34" t="n">
-        <v>113.8379788957708</v>
+        <v>111.6275327036199</v>
       </c>
       <c r="N34" t="n">
         <v>166.3360759593544</v>
@@ -6877,31 +6877,31 @@
         <v>221.0446192150889</v>
       </c>
       <c r="Q34" t="n">
-        <v>194.5434153582287</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="R34" t="n">
-        <v>138.7240670715901</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="S34" t="n">
-        <v>82.90471878495146</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="T34" t="n">
-        <v>27.08537049831283</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="U34" t="n">
-        <v>27.08537049831283</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="V34" t="n">
-        <v>27.08537049831283</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="W34" t="n">
-        <v>27.08537049831283</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="X34" t="n">
-        <v>27.08537049831283</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="Y34" t="n">
-        <v>27.08537049831283</v>
+        <v>165.2252709284503</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>37.53850240323118</v>
+        <v>81.30213978833159</v>
       </c>
       <c r="C35" t="n">
-        <v>37.53850240323118</v>
+        <v>42.19953311829908</v>
       </c>
       <c r="D35" t="n">
-        <v>37.53850240323118</v>
+        <v>42.19953311829908</v>
       </c>
       <c r="E35" t="n">
-        <v>37.53850240323118</v>
+        <v>42.19953311829908</v>
       </c>
       <c r="F35" t="n">
-        <v>37.53850240323118</v>
+        <v>42.19953311829908</v>
       </c>
       <c r="G35" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="H35" t="n">
         <v>3.096926448266574</v>
@@ -6935,10 +6935,10 @@
         <v>3.096926448266574</v>
       </c>
       <c r="J35" t="n">
-        <v>3.096926448266574</v>
+        <v>24.03062058151939</v>
       </c>
       <c r="K35" t="n">
-        <v>3.096926448266574</v>
+        <v>24.03062058151939</v>
       </c>
       <c r="L35" t="n">
         <v>39.87292802143214</v>
@@ -6977,10 +6977,10 @@
         <v>154.8463224133287</v>
       </c>
       <c r="X35" t="n">
-        <v>115.7437157432962</v>
+        <v>120.4047464583641</v>
       </c>
       <c r="Y35" t="n">
-        <v>76.64110907326369</v>
+        <v>81.30213978833159</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="C36" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="D36" t="n">
         <v>3.096926448266574</v>
@@ -7020,13 +7020,13 @@
         <v>3.096926448266574</v>
       </c>
       <c r="L36" t="n">
-        <v>41.42139124556543</v>
+        <v>11.13303166460452</v>
       </c>
       <c r="M36" t="n">
-        <v>79.74585604286429</v>
+        <v>49.45749646190338</v>
       </c>
       <c r="N36" t="n">
-        <v>118.0703208401631</v>
+        <v>87.78196125920223</v>
       </c>
       <c r="O36" t="n">
         <v>126.1064260565011</v>
@@ -7044,22 +7044,22 @@
         <v>115.7437157432962</v>
       </c>
       <c r="T36" t="n">
-        <v>115.7437157432962</v>
+        <v>81.30213978833159</v>
       </c>
       <c r="U36" t="n">
-        <v>115.7437157432962</v>
+        <v>42.19953311829908</v>
       </c>
       <c r="V36" t="n">
-        <v>76.64110907326369</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="W36" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="X36" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="Y36" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="C37" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="D37" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="E37" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="F37" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="G37" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="H37" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="I37" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="J37" t="n">
         <v>3.096926448266574</v>
@@ -7099,46 +7099,46 @@
         <v>3.096926448266574</v>
       </c>
       <c r="L37" t="n">
-        <v>39.87292802143214</v>
+        <v>41.42139124556543</v>
       </c>
       <c r="M37" t="n">
-        <v>78.197392818731</v>
+        <v>41.42139124556543</v>
       </c>
       <c r="N37" t="n">
+        <v>79.74585604286429</v>
+      </c>
+      <c r="O37" t="n">
         <v>116.5218576160299</v>
-      </c>
-      <c r="O37" t="n">
-        <v>154.8463224133287</v>
       </c>
       <c r="P37" t="n">
         <v>154.8463224133287</v>
       </c>
       <c r="Q37" t="n">
-        <v>154.8463224133287</v>
+        <v>128.3451185564685</v>
       </c>
       <c r="R37" t="n">
-        <v>115.7437157432962</v>
+        <v>89.24251188643598</v>
       </c>
       <c r="S37" t="n">
-        <v>76.64110907326369</v>
+        <v>50.13990521640347</v>
       </c>
       <c r="T37" t="n">
-        <v>37.53850240323118</v>
+        <v>11.03729854637096</v>
       </c>
       <c r="U37" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="V37" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="W37" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="X37" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="Y37" t="n">
-        <v>37.53850240323118</v>
+        <v>3.096926448266574</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>76.64110907326369</v>
+      </c>
+      <c r="C38" t="n">
+        <v>76.64110907326369</v>
+      </c>
+      <c r="D38" t="n">
+        <v>76.64110907326369</v>
+      </c>
+      <c r="E38" t="n">
+        <v>76.64110907326369</v>
+      </c>
+      <c r="F38" t="n">
+        <v>76.64110907326369</v>
+      </c>
+      <c r="G38" t="n">
+        <v>76.64110907326369</v>
+      </c>
+      <c r="H38" t="n">
         <v>42.19953311829908</v>
-      </c>
-      <c r="C38" t="n">
-        <v>42.19953311829908</v>
-      </c>
-      <c r="D38" t="n">
-        <v>42.19953311829908</v>
-      </c>
-      <c r="E38" t="n">
-        <v>42.19953311829908</v>
-      </c>
-      <c r="F38" t="n">
-        <v>42.19953311829908</v>
-      </c>
-      <c r="G38" t="n">
-        <v>3.096926448266574</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.096926448266574</v>
       </c>
       <c r="I38" t="n">
         <v>3.096926448266574</v>
       </c>
       <c r="J38" t="n">
-        <v>24.03062058151939</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="K38" t="n">
-        <v>24.03062058151939</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="L38" t="n">
         <v>39.87292802143214</v>
@@ -7199,25 +7199,25 @@
         <v>154.8463224133287</v>
       </c>
       <c r="S38" t="n">
-        <v>120.4047464583641</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="T38" t="n">
-        <v>120.4047464583641</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="U38" t="n">
-        <v>81.30213978833159</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="V38" t="n">
-        <v>81.30213978833159</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="W38" t="n">
-        <v>81.30213978833159</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="X38" t="n">
-        <v>42.19953311829908</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="Y38" t="n">
-        <v>42.19953311829908</v>
+        <v>115.7437157432962</v>
       </c>
     </row>
     <row r="39">
@@ -7263,7 +7263,7 @@
         <v>79.74585604286429</v>
       </c>
       <c r="N39" t="n">
-        <v>118.0703208401631</v>
+        <v>87.78196125920223</v>
       </c>
       <c r="O39" t="n">
         <v>126.1064260565011</v>
@@ -7278,25 +7278,25 @@
         <v>154.8463224133287</v>
       </c>
       <c r="S39" t="n">
+        <v>154.8463224133287</v>
+      </c>
+      <c r="T39" t="n">
+        <v>154.8463224133287</v>
+      </c>
+      <c r="U39" t="n">
+        <v>154.8463224133287</v>
+      </c>
+      <c r="V39" t="n">
         <v>115.7437157432962</v>
       </c>
-      <c r="T39" t="n">
+      <c r="W39" t="n">
+        <v>115.7437157432962</v>
+      </c>
+      <c r="X39" t="n">
         <v>76.64110907326369</v>
       </c>
-      <c r="U39" t="n">
-        <v>76.64110907326369</v>
-      </c>
-      <c r="V39" t="n">
-        <v>76.64110907326369</v>
-      </c>
-      <c r="W39" t="n">
+      <c r="Y39" t="n">
         <v>37.53850240323118</v>
-      </c>
-      <c r="X39" t="n">
-        <v>37.53850240323118</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>3.096926448266574</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.096926448266574</v>
+        <v>128.3451185564685</v>
       </c>
       <c r="C40" t="n">
-        <v>3.096926448266574</v>
+        <v>128.3451185564685</v>
       </c>
       <c r="D40" t="n">
-        <v>3.096926448266574</v>
+        <v>89.24251188643598</v>
       </c>
       <c r="E40" t="n">
-        <v>3.096926448266574</v>
+        <v>89.24251188643598</v>
       </c>
       <c r="F40" t="n">
-        <v>3.096926448266574</v>
+        <v>81.30213978833159</v>
       </c>
       <c r="G40" t="n">
-        <v>3.096926448266574</v>
+        <v>42.19953311829908</v>
       </c>
       <c r="H40" t="n">
         <v>3.096926448266574</v>
@@ -7336,13 +7336,13 @@
         <v>3.096926448266574</v>
       </c>
       <c r="L40" t="n">
-        <v>41.42139124556543</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="M40" t="n">
-        <v>79.74585604286429</v>
+        <v>39.87292802143214</v>
       </c>
       <c r="N40" t="n">
-        <v>116.5218576160299</v>
+        <v>78.197392818731</v>
       </c>
       <c r="O40" t="n">
         <v>116.5218576160299</v>
@@ -7351,31 +7351,31 @@
         <v>154.8463224133287</v>
       </c>
       <c r="Q40" t="n">
-        <v>154.8463224133287</v>
+        <v>128.3451185564685</v>
       </c>
       <c r="R40" t="n">
-        <v>154.8463224133287</v>
+        <v>128.3451185564685</v>
       </c>
       <c r="S40" t="n">
-        <v>154.8463224133287</v>
+        <v>128.3451185564685</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4047464583641</v>
+        <v>128.3451185564685</v>
       </c>
       <c r="U40" t="n">
-        <v>81.30213978833159</v>
+        <v>128.3451185564685</v>
       </c>
       <c r="V40" t="n">
-        <v>42.19953311829908</v>
+        <v>128.3451185564685</v>
       </c>
       <c r="W40" t="n">
-        <v>42.19953311829908</v>
+        <v>128.3451185564685</v>
       </c>
       <c r="X40" t="n">
-        <v>42.19953311829908</v>
+        <v>128.3451185564685</v>
       </c>
       <c r="Y40" t="n">
-        <v>42.19953311829908</v>
+        <v>128.3451185564685</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>42.19953311829908</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="C41" t="n">
-        <v>42.19953311829908</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="D41" t="n">
-        <v>42.19953311829908</v>
+        <v>120.4047464583641</v>
       </c>
       <c r="E41" t="n">
-        <v>42.19953311829908</v>
+        <v>81.30213978833159</v>
       </c>
       <c r="F41" t="n">
         <v>42.19953311829908</v>
@@ -7433,28 +7433,28 @@
         <v>154.8463224133287</v>
       </c>
       <c r="R41" t="n">
-        <v>120.4047464583641</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="S41" t="n">
-        <v>81.30213978833159</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="T41" t="n">
-        <v>81.30213978833159</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="U41" t="n">
-        <v>81.30213978833159</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="V41" t="n">
-        <v>81.30213978833159</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="W41" t="n">
-        <v>81.30213978833159</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="X41" t="n">
-        <v>81.30213978833159</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="Y41" t="n">
-        <v>81.30213978833159</v>
+        <v>154.8463224133287</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.096926448266574</v>
+        <v>76.64110907326369</v>
       </c>
       <c r="C42" t="n">
-        <v>3.096926448266574</v>
+        <v>76.64110907326369</v>
       </c>
       <c r="D42" t="n">
-        <v>3.096926448266574</v>
+        <v>37.53850240323118</v>
       </c>
       <c r="E42" t="n">
-        <v>3.096926448266574</v>
+        <v>37.53850240323118</v>
       </c>
       <c r="F42" t="n">
-        <v>3.096926448266574</v>
+        <v>37.53850240323118</v>
       </c>
       <c r="G42" t="n">
-        <v>3.096926448266574</v>
+        <v>37.53850240323118</v>
       </c>
       <c r="H42" t="n">
         <v>3.096926448266574</v>
@@ -7497,13 +7497,13 @@
         <v>41.42139124556543</v>
       </c>
       <c r="M42" t="n">
-        <v>79.74585604286429</v>
+        <v>78.197392818731</v>
       </c>
       <c r="N42" t="n">
-        <v>118.0703208401631</v>
+        <v>116.5218576160299</v>
       </c>
       <c r="O42" t="n">
-        <v>126.1064260565011</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="P42" t="n">
         <v>154.8463224133287</v>
@@ -7521,19 +7521,19 @@
         <v>154.8463224133287</v>
       </c>
       <c r="U42" t="n">
+        <v>154.8463224133287</v>
+      </c>
+      <c r="V42" t="n">
+        <v>154.8463224133287</v>
+      </c>
+      <c r="W42" t="n">
         <v>115.7437157432962</v>
       </c>
-      <c r="V42" t="n">
+      <c r="X42" t="n">
+        <v>115.7437157432962</v>
+      </c>
+      <c r="Y42" t="n">
         <v>76.64110907326369</v>
-      </c>
-      <c r="W42" t="n">
-        <v>37.53850240323118</v>
-      </c>
-      <c r="X42" t="n">
-        <v>37.53850240323118</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>3.096926448266574</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.19953311829908</v>
+        <v>37.53850240323118</v>
       </c>
       <c r="C43" t="n">
-        <v>42.19953311829908</v>
+        <v>37.53850240323118</v>
       </c>
       <c r="D43" t="n">
-        <v>42.19953311829908</v>
+        <v>37.53850240323118</v>
       </c>
       <c r="E43" t="n">
-        <v>42.19953311829908</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="F43" t="n">
-        <v>42.19953311829908</v>
+        <v>3.096926448266574</v>
       </c>
       <c r="G43" t="n">
         <v>3.096926448266574</v>
@@ -7573,16 +7573,16 @@
         <v>3.096926448266574</v>
       </c>
       <c r="L43" t="n">
-        <v>41.42139124556543</v>
+        <v>39.87292802143214</v>
       </c>
       <c r="M43" t="n">
         <v>78.197392818731</v>
       </c>
       <c r="N43" t="n">
-        <v>78.197392818731</v>
+        <v>116.5218576160299</v>
       </c>
       <c r="O43" t="n">
-        <v>116.5218576160299</v>
+        <v>154.8463224133287</v>
       </c>
       <c r="P43" t="n">
         <v>154.8463224133287</v>
@@ -7591,28 +7591,28 @@
         <v>154.8463224133287</v>
       </c>
       <c r="R43" t="n">
+        <v>154.8463224133287</v>
+      </c>
+      <c r="S43" t="n">
         <v>115.7437157432962</v>
       </c>
-      <c r="S43" t="n">
-        <v>81.30213978833159</v>
-      </c>
       <c r="T43" t="n">
-        <v>42.19953311829908</v>
+        <v>115.7437157432962</v>
       </c>
       <c r="U43" t="n">
-        <v>42.19953311829908</v>
+        <v>76.64110907326369</v>
       </c>
       <c r="V43" t="n">
-        <v>42.19953311829908</v>
+        <v>76.64110907326369</v>
       </c>
       <c r="W43" t="n">
-        <v>42.19953311829908</v>
+        <v>76.64110907326369</v>
       </c>
       <c r="X43" t="n">
-        <v>42.19953311829908</v>
+        <v>76.64110907326369</v>
       </c>
       <c r="Y43" t="n">
-        <v>42.19953311829908</v>
+        <v>76.64110907326369</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.772960512231371</v>
+        <v>24.15882556565777</v>
       </c>
       <c r="C44" t="n">
-        <v>1.772960512231371</v>
+        <v>24.15882556565777</v>
       </c>
       <c r="D44" t="n">
-        <v>1.772960512231371</v>
+        <v>24.15882556565777</v>
       </c>
       <c r="E44" t="n">
-        <v>1.772960512231371</v>
+        <v>24.15882556565777</v>
       </c>
       <c r="F44" t="n">
-        <v>1.772960512231371</v>
+        <v>24.15882556565777</v>
       </c>
       <c r="G44" t="n">
         <v>1.772960512231371</v>
@@ -7646,10 +7646,10 @@
         <v>1.772960512231371</v>
       </c>
       <c r="J44" t="n">
-        <v>6.984559155066149</v>
+        <v>1.772960512231371</v>
       </c>
       <c r="K44" t="n">
-        <v>6.984559155066149</v>
+        <v>1.772960512231371</v>
       </c>
       <c r="L44" t="n">
         <v>22.82686659497891</v>
@@ -7670,28 +7670,28 @@
         <v>88.64802561156853</v>
       </c>
       <c r="R44" t="n">
-        <v>88.64802561156853</v>
+        <v>66.26216055814213</v>
       </c>
       <c r="S44" t="n">
-        <v>68.93055567251056</v>
+        <v>66.26216055814213</v>
       </c>
       <c r="T44" t="n">
-        <v>46.54469061908416</v>
+        <v>43.87629550471573</v>
       </c>
       <c r="U44" t="n">
         <v>24.15882556565777</v>
       </c>
       <c r="V44" t="n">
-        <v>1.772960512231371</v>
+        <v>24.15882556565777</v>
       </c>
       <c r="W44" t="n">
-        <v>1.772960512231371</v>
+        <v>24.15882556565777</v>
       </c>
       <c r="X44" t="n">
-        <v>1.772960512231371</v>
+        <v>24.15882556565777</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.772960512231371</v>
+        <v>24.15882556565777</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.772960512231371</v>
+        <v>21.49043045128933</v>
       </c>
       <c r="C45" t="n">
-        <v>1.772960512231371</v>
+        <v>21.49043045128933</v>
       </c>
       <c r="D45" t="n">
-        <v>1.772960512231371</v>
+        <v>21.49043045128933</v>
       </c>
       <c r="E45" t="n">
-        <v>1.772960512231371</v>
+        <v>21.49043045128933</v>
       </c>
       <c r="F45" t="n">
-        <v>1.772960512231371</v>
+        <v>21.49043045128933</v>
       </c>
       <c r="G45" t="n">
-        <v>1.772960512231371</v>
+        <v>21.49043045128933</v>
       </c>
       <c r="H45" t="n">
-        <v>1.772960512231371</v>
+        <v>21.49043045128933</v>
       </c>
       <c r="I45" t="n">
         <v>1.772960512231371</v>
@@ -7737,10 +7737,10 @@
         <v>45.65373318995779</v>
       </c>
       <c r="N45" t="n">
-        <v>67.594119528821</v>
+        <v>66.70763927270532</v>
       </c>
       <c r="O45" t="n">
-        <v>88.64802561156853</v>
+        <v>66.70763927270532</v>
       </c>
       <c r="P45" t="n">
         <v>88.64802561156853</v>
@@ -7749,28 +7749,28 @@
         <v>88.64802561156853</v>
       </c>
       <c r="R45" t="n">
-        <v>68.93055567251056</v>
+        <v>66.26216055814213</v>
       </c>
       <c r="S45" t="n">
-        <v>68.93055567251056</v>
+        <v>66.26216055814213</v>
       </c>
       <c r="T45" t="n">
-        <v>68.93055567251056</v>
+        <v>66.26216055814213</v>
       </c>
       <c r="U45" t="n">
-        <v>46.54469061908416</v>
+        <v>66.26216055814213</v>
       </c>
       <c r="V45" t="n">
-        <v>24.15882556565777</v>
+        <v>43.87629550471573</v>
       </c>
       <c r="W45" t="n">
-        <v>1.772960512231371</v>
+        <v>21.49043045128933</v>
       </c>
       <c r="X45" t="n">
-        <v>1.772960512231371</v>
+        <v>21.49043045128933</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.772960512231371</v>
+        <v>21.49043045128933</v>
       </c>
     </row>
     <row r="46">
@@ -7807,19 +7807,19 @@
         <v>1.772960512231371</v>
       </c>
       <c r="K46" t="n">
-        <v>23.71334685109458</v>
+        <v>1.772960512231371</v>
       </c>
       <c r="L46" t="n">
-        <v>23.71334685109458</v>
+        <v>22.82686659497891</v>
       </c>
       <c r="M46" t="n">
-        <v>23.71334685109458</v>
+        <v>44.76725293384212</v>
       </c>
       <c r="N46" t="n">
-        <v>44.76725293384212</v>
+        <v>66.70763927270532</v>
       </c>
       <c r="O46" t="n">
-        <v>66.70763927270532</v>
+        <v>88.64802561156853</v>
       </c>
       <c r="P46" t="n">
         <v>88.64802561156853</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K2" t="n">
         <v>56.54227989916996</v>
@@ -7985,13 +7985,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M2" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P2" t="n">
         <v>46.34579576917247</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K3" t="n">
         <v>26.75787480980772</v>
@@ -8149,10 +8149,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O4" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K5" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L5" t="n">
-        <v>28.83625887535973</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09656339947139259</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P5" t="n">
-        <v>42.66898511507466</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q5" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K6" t="n">
-        <v>24.54878065809741</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q6" t="n">
-        <v>50.42343072191045</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L7" t="n">
-        <v>47.43596908875769</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M7" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N7" t="n">
-        <v>37.67551094615368</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O7" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P7" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>69.70579724700553</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K8" t="n">
-        <v>53.21989217810253</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L8" t="n">
-        <v>28.74947534450564</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>9.069265482343781</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P8" t="n">
-        <v>42.58990408143413</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q8" t="n">
-        <v>80.64258426171736</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>60.52422152698378</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K9" t="n">
-        <v>24.50126734687161</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>50.38587124096644</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>60.64691470913344</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L10" t="n">
-        <v>47.39929435887774</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M10" t="n">
-        <v>46.68471506615327</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N10" t="n">
-        <v>37.63776203285606</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O10" t="n">
-        <v>55.28283671961447</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P10" t="n">
-        <v>66.55853351624533</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8854,16 +8854,16 @@
         <v>67.19875668460639</v>
       </c>
       <c r="M13" t="n">
-        <v>65.4561186204016</v>
+        <v>63.8920143536003</v>
       </c>
       <c r="N13" t="n">
-        <v>55.31919416204314</v>
+        <v>18.17171782551226</v>
       </c>
       <c r="O13" t="n">
         <v>37.30279422357805</v>
       </c>
       <c r="P13" t="n">
-        <v>51.173501012562</v>
+        <v>89.88508161589418</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8930,7 +8930,7 @@
         <v>17.14684397594775</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>21.14514558914426</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>1.810057396252972</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.16376330867681</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9085,16 +9085,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>84.57942770895743</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L16" t="n">
         <v>28.48717608127421</v>
       </c>
       <c r="M16" t="n">
-        <v>26.74453801706942</v>
+        <v>63.8920143536003</v>
       </c>
       <c r="N16" t="n">
-        <v>55.31919416204314</v>
+        <v>56.88329842884444</v>
       </c>
       <c r="O16" t="n">
         <v>76.01437482691023</v>
@@ -9164,10 +9164,10 @@
         <v>45.63689302957772</v>
       </c>
       <c r="K17" t="n">
-        <v>17.14684397594775</v>
+        <v>38.291989565092</v>
       </c>
       <c r="L17" t="n">
-        <v>21.14514558914426</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9328,7 +9328,7 @@
         <v>65.63465241780509</v>
       </c>
       <c r="M19" t="n">
-        <v>26.74453801706942</v>
+        <v>65.4561186204016</v>
       </c>
       <c r="N19" t="n">
         <v>56.88329842884444</v>
@@ -9337,7 +9337,7 @@
         <v>76.01437482691023</v>
       </c>
       <c r="P19" t="n">
-        <v>89.88508161589418</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>49.41751032781315</v>
+        <v>100.8980478333499</v>
       </c>
       <c r="K20" t="n">
         <v>17.14684397594775</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>3.780617298235455</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>1.810057396252972</v>
       </c>
       <c r="Q20" t="n">
-        <v>105.2797725233048</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9638,25 +9638,25 @@
         <v>45.63689302957772</v>
       </c>
       <c r="K23" t="n">
-        <v>20.92746127418317</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>37.02605012492008</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>5.466147776647517</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>16.54957420044008</v>
       </c>
       <c r="P23" t="n">
         <v>1.810057396252972</v>
       </c>
       <c r="Q23" t="n">
-        <v>105.2797725233048</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9796,7 +9796,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>98.89622797793194</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L25" t="n">
         <v>83.74833088504644</v>
@@ -9805,13 +9805,13 @@
         <v>82.00569282084165</v>
       </c>
       <c r="N25" t="n">
-        <v>73.43287262928449</v>
+        <v>71.20009869781896</v>
       </c>
       <c r="O25" t="n">
         <v>37.30279422357805</v>
       </c>
       <c r="P25" t="n">
-        <v>51.173501012562</v>
+        <v>106.4346558163342</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>49.41751032781315</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K26" t="n">
         <v>17.14684397594775</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>3.780617298235441</v>
       </c>
       <c r="P26" t="n">
-        <v>1.810057396252972</v>
+        <v>57.0712122000252</v>
       </c>
       <c r="Q26" t="n">
-        <v>105.2797725233048</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10036,16 +10036,16 @@
         <v>45.86784710562524</v>
       </c>
       <c r="L28" t="n">
-        <v>81.51555695358093</v>
+        <v>28.48717608127421</v>
       </c>
       <c r="M28" t="n">
-        <v>82.00569282084165</v>
+        <v>79.77291888937611</v>
       </c>
       <c r="N28" t="n">
         <v>73.43287262928449</v>
       </c>
       <c r="O28" t="n">
-        <v>37.30279422357805</v>
+        <v>92.56394902735028</v>
       </c>
       <c r="P28" t="n">
         <v>106.4346558163342</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>3.780617298235441</v>
       </c>
       <c r="P29" t="n">
-        <v>5.590674694488425</v>
+        <v>57.0712122000252</v>
       </c>
       <c r="Q29" t="n">
-        <v>105.2797725233048</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10273,13 +10273,13 @@
         <v>45.86784710562524</v>
       </c>
       <c r="L31" t="n">
-        <v>83.74833088504644</v>
+        <v>28.48717608127421</v>
       </c>
       <c r="M31" t="n">
-        <v>26.74453801706942</v>
+        <v>79.77291888937611</v>
       </c>
       <c r="N31" t="n">
-        <v>71.20009869781896</v>
+        <v>73.43287262928449</v>
       </c>
       <c r="O31" t="n">
         <v>92.56394902735028</v>
@@ -10352,19 +10352,19 @@
         <v>17.14684397594775</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>39.25882405638561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>5.466147776647546</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>3.780617298235441</v>
+        <v>14.31680026897452</v>
       </c>
       <c r="P32" t="n">
-        <v>57.0712122000252</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q32" t="n">
         <v>50.01861771953256</v>
@@ -10510,13 +10510,13 @@
         <v>45.86784710562524</v>
       </c>
       <c r="L34" t="n">
-        <v>83.74833088504644</v>
+        <v>81.51555695358093</v>
       </c>
       <c r="M34" t="n">
         <v>82.00569282084165</v>
       </c>
       <c r="N34" t="n">
-        <v>71.20009869781896</v>
+        <v>73.43287262928449</v>
       </c>
       <c r="O34" t="n">
         <v>92.56394902735028</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.63689302957772</v>
+        <v>66.78203861872197</v>
       </c>
       <c r="K35" t="n">
         <v>17.14684397594775</v>
       </c>
       <c r="L35" t="n">
-        <v>21.14514558914426</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10747,19 +10747,19 @@
         <v>45.86784710562524</v>
       </c>
       <c r="L37" t="n">
-        <v>65.63465241780509</v>
+        <v>67.19875668460639</v>
       </c>
       <c r="M37" t="n">
-        <v>65.4561186204016</v>
+        <v>26.74453801706942</v>
       </c>
       <c r="N37" t="n">
         <v>56.88329842884444</v>
       </c>
       <c r="O37" t="n">
-        <v>76.01437482691023</v>
+        <v>74.45027056010892</v>
       </c>
       <c r="P37" t="n">
-        <v>51.173501012562</v>
+        <v>89.88508161589418</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>66.78203861872197</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K38" t="n">
         <v>17.14684397594775</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>21.14514558914426</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10984,16 +10984,16 @@
         <v>45.86784710562524</v>
       </c>
       <c r="L40" t="n">
-        <v>67.19875668460639</v>
+        <v>28.48717608127421</v>
       </c>
       <c r="M40" t="n">
-        <v>65.4561186204016</v>
+        <v>63.8920143536003</v>
       </c>
       <c r="N40" t="n">
-        <v>55.31919416204314</v>
+        <v>56.88329842884444</v>
       </c>
       <c r="O40" t="n">
-        <v>37.30279422357805</v>
+        <v>76.01437482691023</v>
       </c>
       <c r="P40" t="n">
         <v>89.88508161589418</v>
@@ -11221,19 +11221,19 @@
         <v>45.86784710562524</v>
       </c>
       <c r="L43" t="n">
-        <v>67.19875668460639</v>
+        <v>65.63465241780509</v>
       </c>
       <c r="M43" t="n">
-        <v>63.8920143536003</v>
+        <v>65.4561186204016</v>
       </c>
       <c r="N43" t="n">
-        <v>18.17171782551226</v>
+        <v>56.88329842884444</v>
       </c>
       <c r="O43" t="n">
         <v>76.01437482691023</v>
       </c>
       <c r="P43" t="n">
-        <v>89.88508161589418</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>50.90113408294619</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K44" t="n">
         <v>17.14684397594775</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>5.264241053368462</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11455,22 +11455,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>68.02985350851738</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L46" t="n">
-        <v>28.48717608127421</v>
+        <v>49.7537478820293</v>
       </c>
       <c r="M46" t="n">
-        <v>26.74453801706942</v>
+        <v>48.90654441996155</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43828962626735</v>
+        <v>40.33372422840439</v>
       </c>
       <c r="O46" t="n">
         <v>59.46480062647018</v>
       </c>
       <c r="P46" t="n">
-        <v>73.33550741545413</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S2" t="n">
         <v>179.7218745449422</v>
@@ -22726,7 +22726,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J4" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22796,13 +22796,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H5" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I5" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22829,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>67.4992912993288</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S5" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T5" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22875,13 +22875,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H6" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I6" t="n">
-        <v>65.24074378433592</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,16 +22908,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.59722706556381</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S6" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T6" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22954,16 +22954,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H7" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I7" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J7" t="n">
-        <v>51.77372115642321</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22984,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.90864702141808</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R7" t="n">
-        <v>150.8459592031442</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S7" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T7" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U7" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23033,13 +23033,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.9909054436208</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H8" t="n">
-        <v>326.0400019133721</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I8" t="n">
-        <v>159.9014836333536</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23066,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>67.46474657889402</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S8" t="n">
-        <v>179.1266962566148</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T8" t="n">
-        <v>217.3533046710778</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2407063421153</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23112,13 +23112,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.6416251260792</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H9" t="n">
-        <v>105.4566448252536</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I9" t="n">
-        <v>65.23061315193451</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.57895837355434</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S9" t="n">
-        <v>158.6458343615066</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T9" t="n">
-        <v>197.3356112293665</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8952049732688</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,16 +23191,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.4025366526095</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H10" t="n">
-        <v>156.9953819045248</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I10" t="n">
-        <v>137.7543979186262</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J10" t="n">
-        <v>51.75628081312638</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23221,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.88799085553058</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R10" t="n">
-        <v>150.8348675305268</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S10" t="n">
-        <v>213.761646517762</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T10" t="n">
-        <v>225.4313342305617</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2869324816264</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>372.7788855462965</v>
       </c>
       <c r="G11" t="n">
-        <v>413.707320657778</v>
+        <v>374.9957400544458</v>
       </c>
       <c r="H11" t="n">
-        <v>323.1357392253592</v>
+        <v>284.424158622027</v>
       </c>
       <c r="I11" t="n">
-        <v>148.9685811771479</v>
+        <v>110.2570005738158</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,19 +23303,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>10.93943317186223</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S11" t="n">
         <v>172.6645079492214</v>
       </c>
       <c r="T11" t="n">
-        <v>182.0147520756359</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U11" t="n">
-        <v>212.5064389559157</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V11" t="n">
-        <v>289.0406778668028</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23346,16 +23346,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>110.9720521979689</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>97.7783132856803</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H12" t="n">
-        <v>65.2796599060399</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I12" t="n">
-        <v>21.29495267590922</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,7 +23385,7 @@
         <v>47.15831191777808</v>
       </c>
       <c r="S12" t="n">
-        <v>155.8274931817798</v>
+        <v>121.7303329863648</v>
       </c>
       <c r="T12" t="n">
         <v>196.7240278659264</v>
@@ -23397,13 +23397,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>212.9834025575874</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>167.0614046001453</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>166.9711151739722</v>
       </c>
     </row>
     <row r="13">
@@ -23422,22 +23422,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>107.722382043237</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>133.1781700850203</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H13" t="n">
         <v>155.8644016137399</v>
       </c>
       <c r="I13" t="n">
-        <v>95.21737477754718</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J13" t="n">
-        <v>4.051209697080331</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>26.23619181829162</v>
       </c>
       <c r="R13" t="n">
-        <v>145.11520646895</v>
+        <v>106.4036258656178</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5447863772357</v>
+        <v>172.8332057739036</v>
       </c>
       <c r="T13" t="n">
-        <v>224.8878160949084</v>
+        <v>186.1762354915763</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2799939522351</v>
+        <v>252.1828337568201</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23504,13 +23504,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>368.1644651383792</v>
+        <v>372.7788855462965</v>
       </c>
       <c r="G14" t="n">
         <v>374.9957400544458</v>
       </c>
       <c r="H14" t="n">
-        <v>289.0385790299442</v>
+        <v>284.424158622027</v>
       </c>
       <c r="I14" t="n">
         <v>110.2570005738158</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>13.06115172236309</v>
+        <v>8.446731314445898</v>
       </c>
       <c r="S15" t="n">
         <v>117.1159125784476</v>
       </c>
       <c r="T15" t="n">
-        <v>158.0124472625942</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U15" t="n">
         <v>225.8852226550407</v>
@@ -23637,7 +23637,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>171.6758250080625</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23662,19 +23662,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>106.7094674195991</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>128.5637496771031</v>
       </c>
       <c r="H16" t="n">
-        <v>155.8644016137399</v>
+        <v>117.1528210104077</v>
       </c>
       <c r="I16" t="n">
-        <v>133.9289553808794</v>
+        <v>99.83179518546439</v>
       </c>
       <c r="J16" t="n">
-        <v>4.051209697080331</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R16" t="n">
-        <v>145.11520646895</v>
+        <v>106.4036258656178</v>
       </c>
       <c r="S16" t="n">
         <v>211.5447863772357</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>278.6620299594676</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>344.0222610601484</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,7 +23741,7 @@
         <v>343.2187894689296</v>
       </c>
       <c r="F17" t="n">
-        <v>368.1644651383792</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.707320657778</v>
@@ -23783,7 +23783,7 @@
         <v>172.6645079492214</v>
       </c>
       <c r="T17" t="n">
-        <v>216.1119122710508</v>
+        <v>177.4003316677187</v>
       </c>
       <c r="U17" t="n">
         <v>251.2180195592479</v>
@@ -23792,13 +23792,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>310.5293881140808</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>335.6339404830541</v>
       </c>
       <c r="Y17" t="n">
-        <v>352.1407784606386</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23829,7 +23829,7 @@
         <v>103.9912405093721</v>
       </c>
       <c r="I18" t="n">
-        <v>25.90937308382644</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.15831191777808</v>
+        <v>8.446731314445898</v>
       </c>
       <c r="S18" t="n">
         <v>117.1159125784476</v>
@@ -23865,7 +23865,7 @@
         <v>158.0124472625942</v>
       </c>
       <c r="U18" t="n">
-        <v>187.1736420517086</v>
+        <v>191.7880624596258</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>141.1203995786051</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>128.5352404952957</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>109.9038924148802</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23938,25 +23938,25 @@
         <v>145.11520646895</v>
       </c>
       <c r="S19" t="n">
-        <v>211.5447863772357</v>
+        <v>177.4476261818207</v>
       </c>
       <c r="T19" t="n">
         <v>224.8878160949084</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2799939522351</v>
+        <v>247.5684133489029</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>252.425838141176</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>186.998074785705</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>179.8730727487626</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>334.059816512318</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,13 +23978,13 @@
         <v>326.6692152684896</v>
       </c>
       <c r="F20" t="n">
-        <v>351.6148909379392</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>365.0332955066154</v>
+        <v>413.707320657778</v>
       </c>
       <c r="H20" t="n">
-        <v>267.874584421587</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I20" t="n">
         <v>148.9685811771479</v>
@@ -24017,7 +24017,7 @@
         <v>49.65101377519441</v>
       </c>
       <c r="S20" t="n">
-        <v>172.6645079492214</v>
+        <v>117.4033531454492</v>
       </c>
       <c r="T20" t="n">
         <v>216.1119122710508</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>314.4699458746968</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24054,10 +24054,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>108.9710553042384</v>
+        <v>102.3839256516287</v>
       </c>
       <c r="F21" t="n">
-        <v>89.80805758961165</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.4898938890125</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.15831191777808</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>155.8274931817798</v>
+        <v>100.5663383780076</v>
       </c>
       <c r="T21" t="n">
-        <v>196.7240278659264</v>
+        <v>195.2083146325419</v>
       </c>
       <c r="U21" t="n">
         <v>225.8852226550407</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>150.5118303997052</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24130,10 +24130,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>93.35431821444013</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>91.17280784279694</v>
+        <v>123.9961293136982</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,10 +24145,10 @@
         <v>155.8644016137399</v>
       </c>
       <c r="I22" t="n">
-        <v>128.0177205301293</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,22 +24169,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>26.23619181829162</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>145.11520646895</v>
       </c>
       <c r="S22" t="n">
-        <v>211.5447863772357</v>
+        <v>156.2836315734635</v>
       </c>
       <c r="T22" t="n">
-        <v>224.8878160949084</v>
+        <v>169.6266612911362</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2799939522351</v>
+        <v>231.0188391484629</v>
       </c>
       <c r="V22" t="n">
-        <v>196.8764885200558</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>327.4726868597083</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24221,10 +24221,10 @@
         <v>413.707320657778</v>
       </c>
       <c r="H23" t="n">
-        <v>323.1357392253592</v>
+        <v>267.874584421587</v>
       </c>
       <c r="I23" t="n">
-        <v>148.9685811771479</v>
+        <v>100.2945560259854</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,22 +24251,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.9769886240318542</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S23" t="n">
-        <v>117.4033531454492</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T23" t="n">
-        <v>160.8507574672786</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U23" t="n">
-        <v>195.9568647554757</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>293.9798139136408</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24294,7 +24294,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>96.39518724222131</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.4898938890125</v>
@@ -24303,7 +24303,7 @@
         <v>103.9912405093721</v>
       </c>
       <c r="I24" t="n">
-        <v>4.745378475469174</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24336,22 +24336,22 @@
         <v>155.8274931817798</v>
       </c>
       <c r="T24" t="n">
-        <v>141.4628730621541</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U24" t="n">
-        <v>170.6240678512685</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>177.539432345653</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>203.020958009757</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>150.5118303997052</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>150.4215409735321</v>
       </c>
     </row>
     <row r="25">
@@ -24412,7 +24412,7 @@
         <v>145.11520646895</v>
       </c>
       <c r="S25" t="n">
-        <v>162.8707612260732</v>
+        <v>156.2836315734635</v>
       </c>
       <c r="T25" t="n">
         <v>169.6266612911362</v>
@@ -24421,7 +24421,7 @@
         <v>231.0188391484629</v>
       </c>
       <c r="V25" t="n">
-        <v>196.8764885200558</v>
+        <v>203.4636181726654</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24455,7 +24455,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>358.4461658540058</v>
+        <v>413.707320657778</v>
       </c>
       <c r="H26" t="n">
         <v>323.1357392253592</v>
@@ -24488,19 +24488,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.9769886240318542</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S26" t="n">
-        <v>172.6645079492214</v>
+        <v>117.4033531454492</v>
       </c>
       <c r="T26" t="n">
         <v>160.8507574672786</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2180195592479</v>
+        <v>202.5439944080854</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>272.4911036663627</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>330.9767838522814</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24528,13 +24528,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>108.9710553042384</v>
+        <v>156.1293672220164</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>89.80805758961165</v>
       </c>
       <c r="G27" t="n">
-        <v>136.4898938890125</v>
+        <v>81.22873908524025</v>
       </c>
       <c r="H27" t="n">
         <v>103.9912405093721</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>47.15831191777808</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>155.8274931817798</v>
       </c>
       <c r="T27" t="n">
-        <v>196.7240278659264</v>
+        <v>141.4628730621541</v>
       </c>
       <c r="U27" t="n">
         <v>225.8852226550407</v>
       </c>
       <c r="V27" t="n">
-        <v>177.539432345653</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>150.5118303997052</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>150.4215409735321</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>111.9856662948556</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24643,28 +24643,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.23619181829162</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>145.11520646895</v>
+        <v>122.677373136079</v>
       </c>
       <c r="S28" t="n">
-        <v>211.5447863772357</v>
+        <v>156.2836315734635</v>
       </c>
       <c r="T28" t="n">
-        <v>224.8878160949084</v>
+        <v>169.6266612911362</v>
       </c>
       <c r="U28" t="n">
-        <v>237.6059688010725</v>
+        <v>286.2799939522351</v>
       </c>
       <c r="V28" t="n">
-        <v>196.8764885200558</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>231.2618435328188</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>170.4485005852649</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>327.4726868597083</v>
       </c>
       <c r="C29" t="n">
-        <v>310.0117369672353</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>299.4218868169107</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>49.65101377519441</v>
+        <v>0.9769886240318542</v>
       </c>
       <c r="S29" t="n">
-        <v>172.6645079492214</v>
+        <v>117.4033531454492</v>
       </c>
       <c r="T29" t="n">
         <v>216.1119122710508</v>
       </c>
       <c r="U29" t="n">
-        <v>202.5439944080854</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V29" t="n">
-        <v>272.4911036663627</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>314.4699458746968</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>117.8591584987048</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24813,10 +24813,10 @@
         <v>196.7240278659264</v>
       </c>
       <c r="U30" t="n">
-        <v>177.2111975038782</v>
+        <v>170.6240678512685</v>
       </c>
       <c r="V30" t="n">
-        <v>177.539432345653</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>196.4338283571474</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>97.7599374954066</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24880,31 +24880,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>26.23619181829162</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>145.11520646895</v>
       </c>
       <c r="S31" t="n">
-        <v>156.2836315734635</v>
+        <v>211.5447863772357</v>
       </c>
       <c r="T31" t="n">
         <v>224.8878160949084</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0188391484629</v>
+        <v>286.2799939522351</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>229.6998099909571</v>
       </c>
       <c r="W31" t="n">
         <v>231.2618435328188</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>170.4485005852649</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>163.3234985483226</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>327.4726868597083</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>316.598866619845</v>
       </c>
       <c r="D32" t="n">
-        <v>306.0090164695204</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>326.6692152684896</v>
@@ -24971,7 +24971,7 @@
         <v>216.1119122710508</v>
       </c>
       <c r="U32" t="n">
-        <v>195.9568647554757</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25005,13 +25005,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>89.80805758961165</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>81.22873908524025</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H33" t="n">
-        <v>48.73008570559985</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I33" t="n">
         <v>60.0065332792414</v>
@@ -25041,19 +25041,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>47.15831191777808</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>155.8274931817798</v>
+        <v>100.5663383780076</v>
       </c>
       <c r="T33" t="n">
-        <v>148.0500027147638</v>
+        <v>141.4628730621541</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8852226550407</v>
+        <v>224.3695094216562</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>177.539432345653</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>124.5708253781651</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>111.9856662948556</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>99.94144786704979</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25096,7 +25096,7 @@
         <v>133.9289553808794</v>
       </c>
       <c r="J34" t="n">
-        <v>20.32495696754157</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,16 +25117,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R34" t="n">
-        <v>89.85405166517774</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S34" t="n">
-        <v>156.2836315734635</v>
+        <v>211.5447863772357</v>
       </c>
       <c r="T34" t="n">
-        <v>169.6266612911362</v>
+        <v>224.8878160949084</v>
       </c>
       <c r="U34" t="n">
         <v>286.2799939522351</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>163.3234985483226</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>344.0222610601484</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>326.5613111676754</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,10 +25166,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.707320657778</v>
+        <v>374.9957400544458</v>
       </c>
       <c r="H35" t="n">
-        <v>289.0385790299442</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I35" t="n">
         <v>148.9685811771479</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>331.0195200751368</v>
+        <v>335.6339404830541</v>
       </c>
       <c r="Y35" t="n">
         <v>347.5263580527214</v>
@@ -25236,7 +25236,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>113.3479053692238</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25284,16 +25284,16 @@
         <v>117.1159125784476</v>
       </c>
       <c r="T36" t="n">
-        <v>196.7240278659264</v>
+        <v>162.6268676705114</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8852226550407</v>
+        <v>187.1736420517086</v>
       </c>
       <c r="V36" t="n">
         <v>194.0890065460931</v>
       </c>
       <c r="W36" t="n">
-        <v>212.9834025575874</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25333,7 +25333,7 @@
         <v>133.9289553808794</v>
       </c>
       <c r="J37" t="n">
-        <v>8.665630104997547</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>26.23619181829162</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>106.4036258656178</v>
@@ -25366,7 +25366,7 @@
         <v>186.1762354915763</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2799939522351</v>
+        <v>278.4190255751117</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>344.0222610601484</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25403,13 +25403,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>374.9957400544458</v>
+        <v>413.707320657778</v>
       </c>
       <c r="H38" t="n">
-        <v>323.1357392253592</v>
+        <v>289.0385790299442</v>
       </c>
       <c r="I38" t="n">
-        <v>148.9685811771479</v>
+        <v>110.2570005738158</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25439,22 @@
         <v>49.65101377519441</v>
       </c>
       <c r="S38" t="n">
-        <v>138.5673477538064</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T38" t="n">
         <v>216.1119122710508</v>
       </c>
       <c r="U38" t="n">
-        <v>212.5064389559157</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>289.0406778668028</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>331.0195200751368</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>132.4360234544524</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25518,25 +25518,25 @@
         <v>47.15831191777808</v>
       </c>
       <c r="S39" t="n">
-        <v>117.1159125784476</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T39" t="n">
-        <v>158.0124472625942</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U39" t="n">
         <v>225.8852226550407</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>194.0890065460931</v>
       </c>
       <c r="W39" t="n">
-        <v>212.9834025575874</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>167.0614046001453</v>
       </c>
       <c r="Y39" t="n">
-        <v>171.5855355818894</v>
+        <v>166.9711151739722</v>
       </c>
     </row>
     <row r="40">
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>141.1203995786051</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>109.9038924148802</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>137.5600796458079</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2753302804353</v>
+        <v>128.5637496771031</v>
       </c>
       <c r="H40" t="n">
-        <v>155.8644016137399</v>
+        <v>117.1528210104077</v>
       </c>
       <c r="I40" t="n">
         <v>133.9289553808794</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>26.23619181829162</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>145.11520646895</v>
@@ -25600,13 +25600,13 @@
         <v>211.5447863772357</v>
       </c>
       <c r="T40" t="n">
-        <v>190.7906558994935</v>
+        <v>224.8878160949084</v>
       </c>
       <c r="U40" t="n">
-        <v>247.5684133489029</v>
+        <v>286.2799939522351</v>
       </c>
       <c r="V40" t="n">
-        <v>213.4260627204958</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>344.0222610601484</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>320.585881425268</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>343.2187894689296</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>368.1644651383792</v>
       </c>
       <c r="G41" t="n">
         <v>374.9957400544458</v>
@@ -25673,10 +25673,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>15.55385357977943</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9529273458892</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T41" t="n">
         <v>216.1119122710508</v>
@@ -25710,7 +25710,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>108.7334849613066</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25722,7 +25722,7 @@
         <v>136.4898938890125</v>
       </c>
       <c r="H42" t="n">
-        <v>103.9912405093721</v>
+        <v>69.89408031395712</v>
       </c>
       <c r="I42" t="n">
         <v>60.0065332792414</v>
@@ -25761,10 +25761,10 @@
         <v>196.7240278659264</v>
       </c>
       <c r="U42" t="n">
-        <v>187.1736420517086</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V42" t="n">
-        <v>194.0890065460931</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>212.9834025575874</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>171.5855355818894</v>
+        <v>166.9711151739722</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>141.1203995786051</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,13 +25792,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>112.3368024511542</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>128.5637496771031</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H43" t="n">
         <v>155.8644016137399</v>
@@ -25831,16 +25831,16 @@
         <v>26.23619181829162</v>
       </c>
       <c r="R43" t="n">
-        <v>106.4036258656178</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S43" t="n">
-        <v>177.4476261818208</v>
+        <v>172.8332057739036</v>
       </c>
       <c r="T43" t="n">
-        <v>186.1762354915763</v>
+        <v>224.8878160949084</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2799939522351</v>
+        <v>247.5684133489029</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,7 +25877,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.707320657778</v>
+        <v>391.5453142548859</v>
       </c>
       <c r="H44" t="n">
         <v>323.1357392253592</v>
@@ -25910,19 +25910,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>49.65101377519441</v>
+        <v>27.48900737230228</v>
       </c>
       <c r="S44" t="n">
-        <v>153.144212709554</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T44" t="n">
         <v>193.9499058681587</v>
       </c>
       <c r="U44" t="n">
-        <v>229.0560131563558</v>
+        <v>231.6977243195805</v>
       </c>
       <c r="V44" t="n">
-        <v>305.5902520672428</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25962,7 +25962,7 @@
         <v>103.9912405093721</v>
       </c>
       <c r="I45" t="n">
-        <v>60.0065332792414</v>
+        <v>40.48623803957402</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>27.6380166781107</v>
+        <v>24.99630551488595</v>
       </c>
       <c r="S45" t="n">
         <v>155.8274931817798</v>
@@ -25998,7 +25998,7 @@
         <v>196.7240278659264</v>
       </c>
       <c r="U45" t="n">
-        <v>203.7232162521486</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V45" t="n">
         <v>210.6385807465331</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>350274.0658328158</v>
+        <v>350491.4919497662</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>350270.1636766752</v>
+        <v>350274.0658328158</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>383411.6051077747</v>
+        <v>383411.6051077746</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>383411.6051077748</v>
+        <v>383411.6051077747</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>398030.8320239965</v>
+        <v>398030.8320239963</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>398030.8320239965</v>
+        <v>398030.8320239964</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>398030.8320239964</v>
+        <v>398030.8320239965</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>383411.6051077746</v>
+        <v>383411.6051077747</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>383411.6051077747</v>
+        <v>383411.6051077748</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>83687.58935734114</v>
+      </c>
+      <c r="C2" t="n">
         <v>83687.58935734116</v>
       </c>
-      <c r="C2" t="n">
-        <v>83838.73193385258</v>
-      </c>
       <c r="D2" t="n">
-        <v>83841.98271620233</v>
+        <v>83838.73193385256</v>
       </c>
       <c r="E2" t="n">
         <v>93195.16918965378</v>
       </c>
       <c r="F2" t="n">
+        <v>93195.1691896538</v>
+      </c>
+      <c r="G2" t="n">
         <v>93195.16918965378</v>
       </c>
-      <c r="G2" t="n">
-        <v>93195.1691896538</v>
-      </c>
       <c r="H2" t="n">
-        <v>96477.09671381989</v>
+        <v>96477.09671381992</v>
       </c>
       <c r="I2" t="n">
-        <v>96477.09671381989</v>
+        <v>96477.09671381992</v>
       </c>
       <c r="J2" t="n">
-        <v>96477.09671381989</v>
+        <v>96477.0967138199</v>
       </c>
       <c r="K2" t="n">
         <v>96477.0967138199</v>
       </c>
       <c r="L2" t="n">
-        <v>96477.09671381992</v>
+        <v>96477.09671381989</v>
       </c>
       <c r="M2" t="n">
-        <v>93195.16918965381</v>
+        <v>93195.1691896538</v>
       </c>
       <c r="N2" t="n">
-        <v>93195.16918965378</v>
+        <v>93195.1691896538</v>
       </c>
       <c r="O2" t="n">
         <v>93195.1691896538</v>
       </c>
       <c r="P2" t="n">
-        <v>89913.24166548759</v>
+        <v>89913.24166548763</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>308183.8838205543</v>
       </c>
       <c r="C3" t="n">
-        <v>5791.623124914663</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117.1538387574727</v>
+        <v>5446.975876289165</v>
       </c>
       <c r="E3" t="n">
-        <v>68231.85215387774</v>
+        <v>68341.75431045071</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15893.70350145457</v>
+        <v>15741.13452040118</v>
       </c>
       <c r="C4" t="n">
-        <v>15063.73998075518</v>
+        <v>15741.13452040118</v>
       </c>
       <c r="D4" t="n">
-        <v>15046.67084284599</v>
+        <v>14919.13809740517</v>
       </c>
       <c r="E4" t="n">
-        <v>10767.53610068293</v>
+        <v>10664.49715493345</v>
       </c>
       <c r="F4" t="n">
-        <v>10767.53610068293</v>
+        <v>10664.49715493345</v>
       </c>
       <c r="G4" t="n">
-        <v>10767.53610068293</v>
+        <v>10664.49715493345</v>
       </c>
       <c r="H4" t="n">
-        <v>12287.86024914029</v>
+        <v>12170.3649628336</v>
       </c>
       <c r="I4" t="n">
-        <v>12287.86024914029</v>
+        <v>12170.3649628336</v>
       </c>
       <c r="J4" t="n">
-        <v>12287.86024914029</v>
+        <v>12170.3649628336</v>
       </c>
       <c r="K4" t="n">
-        <v>12287.86024914029</v>
+        <v>12170.3649628336</v>
       </c>
       <c r="L4" t="n">
-        <v>12287.86024914029</v>
+        <v>12170.3649628336</v>
       </c>
       <c r="M4" t="n">
-        <v>10767.53610068293</v>
+        <v>10664.49715493345</v>
       </c>
       <c r="N4" t="n">
-        <v>10767.53610068293</v>
+        <v>10664.49715493345</v>
       </c>
       <c r="O4" t="n">
-        <v>10767.53610068293</v>
+        <v>10664.49715493345</v>
       </c>
       <c r="P4" t="n">
-        <v>9822.278940321487</v>
+        <v>9728.176074580559</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>40599.70256325733</v>
       </c>
       <c r="C5" t="n">
+        <v>40599.70256325733</v>
+      </c>
+      <c r="D5" t="n">
         <v>40738.35521735115</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40741.33736580378</v>
       </c>
       <c r="E5" t="n">
         <v>11005.21086391558</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-280989.700527925</v>
+        <v>-280837.1315468716</v>
       </c>
       <c r="C6" t="n">
-        <v>22245.01361083159</v>
+        <v>27346.75227368266</v>
       </c>
       <c r="D6" t="n">
-        <v>27936.82066879508</v>
+        <v>22734.26274280708</v>
       </c>
       <c r="E6" t="n">
-        <v>3190.570071177528</v>
+        <v>3183.706860354045</v>
       </c>
       <c r="F6" t="n">
-        <v>71422.42222505527</v>
+        <v>71525.46117080476</v>
       </c>
       <c r="G6" t="n">
-        <v>71422.42222505528</v>
+        <v>71525.46117080475</v>
       </c>
       <c r="H6" t="n">
-        <v>67712.58742393074</v>
+        <v>67830.08271023746</v>
       </c>
       <c r="I6" t="n">
-        <v>72177.81148937727</v>
+        <v>72295.30677568399</v>
       </c>
       <c r="J6" t="n">
-        <v>72177.81148937727</v>
+        <v>72295.30677568397</v>
       </c>
       <c r="K6" t="n">
-        <v>72177.81148937729</v>
+        <v>72295.30677568397</v>
       </c>
       <c r="L6" t="n">
-        <v>72177.8114893773</v>
+        <v>72295.30677568396</v>
       </c>
       <c r="M6" t="n">
-        <v>65899.56158142896</v>
+        <v>66002.60052717844</v>
       </c>
       <c r="N6" t="n">
-        <v>71422.42222505527</v>
+        <v>71525.46117080476</v>
       </c>
       <c r="O6" t="n">
-        <v>71422.42222505528</v>
+        <v>71525.46117080477</v>
       </c>
       <c r="P6" t="n">
-        <v>70091.96597263728</v>
+        <v>70186.06883837824</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>319.8212184980426</v>
       </c>
       <c r="C3" t="n">
+        <v>319.8212184980426</v>
+      </c>
+      <c r="D3" t="n">
         <v>326.1814319885848</v>
-      </c>
-      <c r="D3" t="n">
-        <v>326.3182277891643</v>
       </c>
       <c r="E3" t="n">
         <v>396.859943267568</v>
@@ -26960,13 +26960,13 @@
         <v>319.8212184980426</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>6.360213490542151</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.1367958005794776</v>
-      </c>
       <c r="E3" t="n">
-        <v>70.54171547840377</v>
+        <v>70.67851127898325</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31048,7 +31048,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J2" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K2" t="n">
         <v>163.5475711458106</v>
@@ -31072,13 +31072,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R2" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S2" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T2" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U2" t="n">
         <v>0.1028570752958528</v>
@@ -31127,7 +31127,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J3" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K3" t="n">
         <v>111.0835641645513</v>
@@ -31157,7 +31157,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T3" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U3" t="n">
         <v>0.04525771959877963</v>
@@ -31200,13 +31200,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H4" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I4" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J4" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K4" t="n">
         <v>67.00516676073742</v>
@@ -31221,10 +31221,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O4" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P4" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q4" t="n">
         <v>48.29300399320443</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H5" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I5" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J5" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K5" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L5" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M5" t="n">
-        <v>230.2496698278013</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P5" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q5" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R5" t="n">
-        <v>82.36982664182088</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S5" t="n">
-        <v>29.88084173443167</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T5" t="n">
-        <v>5.740137561929767</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H6" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I6" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J6" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K6" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
@@ -31382,22 +31382,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q6" t="n">
-        <v>89.55834336411107</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R6" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S6" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T6" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H7" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I7" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J7" t="n">
-        <v>41.58545896024956</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K7" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L7" t="n">
-        <v>87.4487071924806</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M7" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N7" t="n">
-        <v>90.01003351907951</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O7" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P7" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q7" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R7" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S7" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T7" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.311832071514227</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H8" t="n">
-        <v>13.43480020239508</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I8" t="n">
-        <v>50.5744059370523</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J8" t="n">
-        <v>111.3401072796808</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K8" t="n">
-        <v>166.869958866878</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L8" t="n">
-        <v>207.0169396254816</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>221.0289459393429</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P8" t="n">
-        <v>188.6430916738354</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q8" t="n">
-        <v>141.6631056127321</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R8" t="n">
-        <v>82.40437136225566</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S8" t="n">
-        <v>29.89337332963048</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T8" t="n">
-        <v>5.742544893053533</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1049465657211382</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.70189203713141</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H9" t="n">
-        <v>6.778799411242828</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I9" t="n">
-        <v>24.16601969948056</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J9" t="n">
-        <v>66.31340513968291</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K9" t="n">
-        <v>113.3401716274874</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -31622,19 +31622,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.59590284505508</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R9" t="n">
-        <v>43.57887577908879</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S9" t="n">
-        <v>13.03733674233122</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T9" t="n">
-        <v>2.829117465455112</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04617710770601383</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5884427058493126</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H10" t="n">
-        <v>5.231790602914802</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I10" t="n">
-        <v>17.69607700863206</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J10" t="n">
-        <v>41.60289930354639</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K10" t="n">
-        <v>68.36634346140194</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L10" t="n">
-        <v>87.48538192236055</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M10" t="n">
-        <v>92.24106888145178</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N10" t="n">
-        <v>90.04778243237713</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O10" t="n">
-        <v>83.17370173222832</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P10" t="n">
-        <v>71.16947053290228</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q10" t="n">
-        <v>49.2740523961638</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R10" t="n">
-        <v>26.45852384664272</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S10" t="n">
-        <v>10.25495151921029</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T10" t="n">
-        <v>2.514255197719789</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U10" t="n">
-        <v>0.032096874864508</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31850,10 +31850,10 @@
         <v>180.8456145253505</v>
       </c>
       <c r="N12" t="n">
-        <v>170.0532926866655</v>
+        <v>139.4589900796342</v>
       </c>
       <c r="O12" t="n">
-        <v>150.7135224407454</v>
+        <v>181.3078250477766</v>
       </c>
       <c r="P12" t="n">
         <v>163.0046057545602</v>
@@ -32081,13 +32081,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>146.6716577761751</v>
+        <v>177.2659603832064</v>
       </c>
       <c r="M15" t="n">
         <v>180.8456145253505</v>
       </c>
       <c r="N15" t="n">
-        <v>170.0532926866655</v>
+        <v>139.4589900796342</v>
       </c>
       <c r="O15" t="n">
         <v>181.3078250477766</v>
@@ -32318,13 +32318,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>177.2659603832064</v>
+        <v>146.6716577761751</v>
       </c>
       <c r="M18" t="n">
         <v>180.8456145253505</v>
       </c>
       <c r="N18" t="n">
-        <v>139.4589900796342</v>
+        <v>170.0532926866655</v>
       </c>
       <c r="O18" t="n">
         <v>181.3078250477766</v>
@@ -32795,7 +32795,7 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M24" t="n">
-        <v>174.6029256466004</v>
+        <v>197.3951887257905</v>
       </c>
       <c r="N24" t="n">
         <v>186.6028668871055</v>
@@ -32804,7 +32804,7 @@
         <v>197.8573992482167</v>
       </c>
       <c r="P24" t="n">
-        <v>163.0046057545602</v>
+        <v>140.21234267537</v>
       </c>
       <c r="Q24" t="n">
         <v>108.96426215905</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>162.552562311951</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M27" t="n">
         <v>197.3951887257905</v>
@@ -33041,7 +33041,7 @@
         <v>197.8573992482167</v>
       </c>
       <c r="P27" t="n">
-        <v>163.0046057545602</v>
+        <v>140.21234267537</v>
       </c>
       <c r="Q27" t="n">
         <v>108.96426215905</v>
@@ -33266,7 +33266,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>162.552562311951</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M30" t="n">
         <v>197.3951887257905</v>
@@ -33278,7 +33278,7 @@
         <v>197.8573992482167</v>
       </c>
       <c r="P30" t="n">
-        <v>163.0046057545602</v>
+        <v>140.21234267537</v>
       </c>
       <c r="Q30" t="n">
         <v>108.96426215905</v>
@@ -33506,10 +33506,10 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M33" t="n">
-        <v>197.3951887257905</v>
+        <v>174.6029256466004</v>
       </c>
       <c r="N33" t="n">
-        <v>163.8106038079154</v>
+        <v>186.6028668871055</v>
       </c>
       <c r="O33" t="n">
         <v>197.8573992482167</v>
@@ -33740,7 +33740,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>177.2659603832064</v>
+        <v>146.6716577761751</v>
       </c>
       <c r="M36" t="n">
         <v>180.8456145253505</v>
@@ -33749,7 +33749,7 @@
         <v>170.0532926866655</v>
       </c>
       <c r="O36" t="n">
-        <v>150.7135224407454</v>
+        <v>181.3078250477766</v>
       </c>
       <c r="P36" t="n">
         <v>163.0046057545602</v>
@@ -33983,10 +33983,10 @@
         <v>180.8456145253505</v>
       </c>
       <c r="N39" t="n">
-        <v>170.0532926866655</v>
+        <v>139.4589900796342</v>
       </c>
       <c r="O39" t="n">
-        <v>150.7135224407454</v>
+        <v>181.3078250477766</v>
       </c>
       <c r="P39" t="n">
         <v>163.0046057545602</v>
@@ -34217,16 +34217,16 @@
         <v>177.2659603832064</v>
       </c>
       <c r="M42" t="n">
-        <v>180.8456145253505</v>
+        <v>179.2815102585492</v>
       </c>
       <c r="N42" t="n">
         <v>170.0532926866655</v>
       </c>
       <c r="O42" t="n">
-        <v>150.7135224407454</v>
+        <v>181.3078250477766</v>
       </c>
       <c r="P42" t="n">
-        <v>163.0046057545602</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>108.96426215905</v>
@@ -34457,13 +34457,13 @@
         <v>164.2960403249105</v>
       </c>
       <c r="N45" t="n">
-        <v>153.5037184862254</v>
+        <v>152.6082838840884</v>
       </c>
       <c r="O45" t="n">
-        <v>163.8628162451995</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>156.1364138172224</v>
       </c>
       <c r="Q45" t="n">
         <v>108.96426215905</v>
@@ -35498,10 +35498,10 @@
         <v>38.71158060333218</v>
       </c>
       <c r="N12" t="n">
+        <v>8.117277996300954</v>
+      </c>
+      <c r="O12" t="n">
         <v>38.71158060333218</v>
-      </c>
-      <c r="O12" t="n">
-        <v>8.117277996300954</v>
       </c>
       <c r="P12" t="n">
         <v>29.03019834022993</v>
@@ -35574,16 +35574,16 @@
         <v>38.71158060333218</v>
       </c>
       <c r="M13" t="n">
+        <v>37.14747633653088</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>38.71158060333218</v>
-      </c>
-      <c r="N13" t="n">
-        <v>37.14747633653088</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>16.00233074738662</v>
+        <v>37.14747633653088</v>
       </c>
       <c r="M14" t="n">
         <v>38.71158060333218</v>
@@ -35665,7 +35665,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.14514558914424</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>8.117277996300952</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="M15" t="n">
         <v>38.71158060333218</v>
       </c>
       <c r="N15" t="n">
-        <v>38.71158060333218</v>
+        <v>8.117277996300954</v>
       </c>
       <c r="O15" t="n">
         <v>38.71158060333218</v>
@@ -35805,16 +35805,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>37.14747633653088</v>
+      </c>
+      <c r="N16" t="n">
         <v>38.71158060333218</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>37.14747633653088</v>
       </c>
       <c r="O16" t="n">
         <v>38.71158060333218</v>
@@ -35884,10 +35884,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>21.14514558914425</v>
       </c>
       <c r="L17" t="n">
-        <v>37.14747633653088</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M17" t="n">
         <v>38.71158060333218</v>
@@ -35966,13 +35966,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>38.71158060333218</v>
+        <v>8.117277996300952</v>
       </c>
       <c r="M18" t="n">
         <v>38.71158060333218</v>
       </c>
       <c r="N18" t="n">
-        <v>8.117277996300954</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="O18" t="n">
         <v>38.71158060333218</v>
@@ -36048,7 +36048,7 @@
         <v>37.14747633653088</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="N19" t="n">
         <v>38.71158060333218</v>
@@ -36057,7 +36057,7 @@
         <v>38.71158060333218</v>
       </c>
       <c r="P19" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.780617298235428</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>16.00233074738662</v>
       </c>
       <c r="M20" t="n">
-        <v>49.79500702712468</v>
+        <v>53.57562432536014</v>
       </c>
       <c r="N20" t="n">
         <v>55.26115480377223</v>
@@ -36139,7 +36139,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>3.780617298235428</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>16.00233074738662</v>
+        <v>53.02838087230671</v>
       </c>
       <c r="M23" t="n">
-        <v>49.79500702712468</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="N23" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="O23" t="n">
-        <v>38.71158060333218</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M24" t="n">
-        <v>32.46889172458209</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="N24" t="n">
         <v>55.26115480377223</v>
@@ -36452,7 +36452,7 @@
         <v>55.26115480377223</v>
       </c>
       <c r="P24" t="n">
-        <v>29.03019834022993</v>
+        <v>6.237935261039771</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>53.02838087230671</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>55.26115480377223</v>
@@ -36525,13 +36525,13 @@
         <v>55.26115480377223</v>
       </c>
       <c r="N25" t="n">
+        <v>53.0283808723067</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>55.26115480377223</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.780617298235428</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -36607,13 +36607,13 @@
         <v>55.26115480377223</v>
       </c>
       <c r="O26" t="n">
-        <v>38.71158060333218</v>
+        <v>42.49219790156762</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>23.99818253207679</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M27" t="n">
         <v>55.26115480377223</v>
@@ -36689,7 +36689,7 @@
         <v>55.26115480377223</v>
       </c>
       <c r="P27" t="n">
-        <v>29.03019834022993</v>
+        <v>6.237935261039771</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
         <v>53.02838087230671</v>
-      </c>
-      <c r="M28" t="n">
-        <v>55.26115480377223</v>
       </c>
       <c r="N28" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="P28" t="n">
         <v>55.26115480377223</v>
@@ -36844,13 +36844,13 @@
         <v>55.26115480377223</v>
       </c>
       <c r="O29" t="n">
-        <v>38.71158060333218</v>
+        <v>42.49219790156762</v>
       </c>
       <c r="P29" t="n">
-        <v>3.780617298235453</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="Q29" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>23.99818253207679</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M30" t="n">
         <v>55.26115480377223</v>
@@ -36926,7 +36926,7 @@
         <v>55.26115480377223</v>
       </c>
       <c r="P30" t="n">
-        <v>29.03019834022993</v>
+        <v>6.237935261039771</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36993,13 +36993,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>53.02838087230671</v>
+      </c>
+      <c r="N31" t="n">
         <v>55.26115480377223</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>53.02838087230671</v>
       </c>
       <c r="O31" t="n">
         <v>55.26115480377223</v>
@@ -37072,19 +37072,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>16.00233074738662</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="M32" t="n">
-        <v>49.79500702712468</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="N32" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="O32" t="n">
-        <v>42.49219790156762</v>
+        <v>53.0283808723067</v>
       </c>
       <c r="P32" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M33" t="n">
+        <v>32.46889172458209</v>
+      </c>
+      <c r="N33" t="n">
         <v>55.26115480377223</v>
-      </c>
-      <c r="N33" t="n">
-        <v>32.46889172458208</v>
       </c>
       <c r="O33" t="n">
         <v>55.26115480377223</v>
@@ -37230,13 +37230,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>55.26115480377223</v>
+        <v>53.02838087230671</v>
       </c>
       <c r="M34" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="N34" t="n">
-        <v>53.0283808723067</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="O34" t="n">
         <v>55.26115480377223</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>21.14514558914425</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>37.14747633653088</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M35" t="n">
         <v>38.71158060333218</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>38.71158060333218</v>
+        <v>8.117277996300952</v>
       </c>
       <c r="M36" t="n">
         <v>38.71158060333218</v>
@@ -37397,7 +37397,7 @@
         <v>38.71158060333218</v>
       </c>
       <c r="O36" t="n">
-        <v>8.117277996300954</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P36" t="n">
         <v>29.03019834022993</v>
@@ -37467,19 +37467,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>37.14747633653088</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="M37" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>38.71158060333218</v>
       </c>
       <c r="O37" t="n">
+        <v>37.14747633653088</v>
+      </c>
+      <c r="P37" t="n">
         <v>38.71158060333218</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>21.14514558914425</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>16.00233074738662</v>
+        <v>37.14747633653088</v>
       </c>
       <c r="M38" t="n">
         <v>38.71158060333218</v>
@@ -37631,10 +37631,10 @@
         <v>38.71158060333218</v>
       </c>
       <c r="N39" t="n">
+        <v>8.117277996300954</v>
+      </c>
+      <c r="O39" t="n">
         <v>38.71158060333218</v>
-      </c>
-      <c r="O39" t="n">
-        <v>8.117277996300954</v>
       </c>
       <c r="P39" t="n">
         <v>29.03019834022993</v>
@@ -37704,16 +37704,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>37.14747633653088</v>
+      </c>
+      <c r="N40" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40" t="n">
         <v>38.71158060333218</v>
-      </c>
-      <c r="N40" t="n">
-        <v>37.14747633653088</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>38.71158060333218</v>
@@ -37865,16 +37865,16 @@
         <v>38.71158060333218</v>
       </c>
       <c r="M42" t="n">
-        <v>38.71158060333218</v>
+        <v>37.14747633653088</v>
       </c>
       <c r="N42" t="n">
         <v>38.71158060333218</v>
       </c>
       <c r="O42" t="n">
-        <v>8.117277996300954</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P42" t="n">
-        <v>29.03019834022993</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37941,19 +37941,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>37.14747633653088</v>
+      </c>
+      <c r="M43" t="n">
         <v>38.71158060333218</v>
       </c>
-      <c r="M43" t="n">
-        <v>37.14747633653088</v>
-      </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="O43" t="n">
         <v>38.71158060333218</v>
       </c>
       <c r="P43" t="n">
-        <v>38.71158060333218</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>5.264241053368464</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>16.00233074738662</v>
+        <v>21.26657180075508</v>
       </c>
       <c r="M44" t="n">
         <v>22.16200640289213</v>
@@ -38105,13 +38105,13 @@
         <v>22.16200640289213</v>
       </c>
       <c r="N45" t="n">
+        <v>21.26657180075508</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>22.16200640289213</v>
-      </c>
-      <c r="O45" t="n">
-        <v>21.26657180075508</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>21.26657180075508</v>
+      </c>
+      <c r="M46" t="n">
         <v>22.16200640289213</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
       <c r="N46" t="n">
-        <v>21.26657180075508</v>
+        <v>22.16200640289213</v>
       </c>
       <c r="O46" t="n">
         <v>22.16200640289213</v>
       </c>
       <c r="P46" t="n">
-        <v>22.16200640289213</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
